--- a/expresults.xlsx
+++ b/expresults.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansonthai/Desktop/comp2560/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansonthai/Downloads/summer-research-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AEE903-5235-DC4D-BF54-F39D09CD6767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A269F6-EE21-6B4A-8B9C-AE38DA8A0A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
+    <workbookView xWindow="10260" yWindow="4960" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Indexing" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Query Evaluation" sheetId="3" r:id="rId3"/>
+    <sheet name="Query Evaluation V2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="117">
   <si>
     <t>Main</t>
   </si>
@@ -239,9 +240,6 @@
     <t>Large dataset</t>
   </si>
   <si>
-    <t>PMEM table (vcmap)</t>
-  </si>
-  <si>
     <t>DocId</t>
   </si>
   <si>
@@ -375,6 +373,21 @@
   </si>
   <si>
     <t>Note min results first 14 missing for 1000, 10000</t>
+  </si>
+  <si>
+    <t>table sst</t>
+  </si>
+  <si>
+    <t>table-sst</t>
+  </si>
+  <si>
+    <t>sst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock </t>
+  </si>
+  <si>
+    <t>table sst (small dataset)</t>
   </si>
 </sst>
 </file>
@@ -562,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -590,7 +603,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,16 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,7 +670,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$60</c:f>
+              <c:f>Indexing!$Z$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -677,7 +691,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$61:$Y$64</c:f>
+              <c:f>Indexing!$Y$61:$Y$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -697,7 +711,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$61:$Z$64</c:f>
+              <c:f>Indexing!$Z$61:$Z$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -727,7 +741,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$60</c:f>
+              <c:f>Indexing!$AA$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -748,7 +762,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$61:$Y$64</c:f>
+              <c:f>Indexing!$Y$61:$Y$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -768,7 +782,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$61:$AA$64</c:f>
+              <c:f>Indexing!$AA$61:$AA$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -798,7 +812,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$60</c:f>
+              <c:f>Indexing!$AB$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -819,7 +833,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$61:$Y$64</c:f>
+              <c:f>Indexing!$Y$61:$Y$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -839,7 +853,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$61:$AB$64</c:f>
+              <c:f>Indexing!$AB$61:$AB$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -869,7 +883,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$60</c:f>
+              <c:f>Indexing!$AC$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -890,7 +904,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$61:$Y$64</c:f>
+              <c:f>Indexing!$Y$61:$Y$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -910,7 +924,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$61:$AC$64</c:f>
+              <c:f>Indexing!$AC$61:$AC$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1191,6 +1205,1404 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1402.5245441795232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1439.9470099500338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400.0787225821005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2035.3333876088905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5439-B147-8D84-16DB8CBF29E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>296.92092995635261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.27472834511557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1074609789981205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0494684776443468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5439-B147-8D84-16DB8CBF29E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1971.2201852946973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>672.73473396704946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1271.5334184413034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1294.4749221373336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5439-B147-8D84-16DB8CBF29E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>table-sst</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1290.1561088891756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>427.9118330459192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>448.4606587887078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440.94238205893635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5439-B147-8D84-16DB8CBF29E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="70292447"/>
+        <c:axId val="124767887"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70292447"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>No. of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" baseline="0"/>
+                  <a:t> Requests</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1500"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124767887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124767887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>QPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70292447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.7800000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7900000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1799999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37D7-0548-889D-8F6CD5AE1EB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$32:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.9399999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14436399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89703100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8680770000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37D7-0548-889D-8F6CD5AE1EB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation'!$B$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9580000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8938999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2419999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1221999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37D7-0548-889D-8F6CD5AE1EB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation V2'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.8630000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8311E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1551000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1411000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-37D7-0548-889D-8F6CD5AE1EB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="94354191"/>
+        <c:axId val="149692879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94354191"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>No.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" baseline="0"/>
+                  <a:t> of Requests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149692879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149692879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" baseline="0"/>
+                  <a:t>Tail Latency (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1500"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94354191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1217,7 +2629,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$60</c:f>
+              <c:f>Indexing!$Z$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1238,7 +2650,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$61:$Y$64</c:f>
+              <c:f>Indexing!$Y$61:$Y$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1258,7 +2670,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$61:$Z$64</c:f>
+              <c:f>Indexing!$Z$61:$Z$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1288,7 +2700,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$60</c:f>
+              <c:f>Indexing!$AA$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1309,7 +2721,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$61:$Y$64</c:f>
+              <c:f>Indexing!$Y$61:$Y$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1329,7 +2741,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$61:$AA$64</c:f>
+              <c:f>Indexing!$AA$61:$AA$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1359,7 +2771,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$60</c:f>
+              <c:f>Indexing!$AB$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1380,7 +2792,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$61:$Y$64</c:f>
+              <c:f>Indexing!$Y$61:$Y$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1400,7 +2812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$61:$AB$64</c:f>
+              <c:f>Indexing!$AB$61:$AB$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1430,7 +2842,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$60</c:f>
+              <c:f>Indexing!$AC$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1451,7 +2863,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$61:$Y$64</c:f>
+              <c:f>Indexing!$Y$61:$Y$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1471,7 +2883,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$61:$AC$64</c:f>
+              <c:f>Indexing!$AC$61:$AC$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1725,7 +3137,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$72</c:f>
+              <c:f>Indexing!$Z$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1746,7 +3158,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$73:$Y$76</c:f>
+              <c:f>Indexing!$Y$73:$Y$76</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1766,7 +3178,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$73:$Z$76</c:f>
+              <c:f>Indexing!$Z$73:$Z$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1796,7 +3208,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$72</c:f>
+              <c:f>Indexing!$AA$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1817,7 +3229,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$73:$Y$76</c:f>
+              <c:f>Indexing!$Y$73:$Y$76</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1837,7 +3249,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$73:$AA$76</c:f>
+              <c:f>Indexing!$AA$73:$AA$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1867,7 +3279,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$72</c:f>
+              <c:f>Indexing!$AB$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1888,7 +3300,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$73:$Y$76</c:f>
+              <c:f>Indexing!$Y$73:$Y$76</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1908,7 +3320,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$73:$AB$76</c:f>
+              <c:f>Indexing!$AB$73:$AB$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1938,7 +3350,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$72</c:f>
+              <c:f>Indexing!$AC$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1959,7 +3371,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Y$73:$Y$76</c:f>
+              <c:f>Indexing!$Y$73:$Y$76</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1979,7 +3391,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$73:$AC$76</c:f>
+              <c:f>Indexing!$AC$73:$AC$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2296,7 +3708,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AD$80:$AD$83</c:f>
+              <c:f>Indexing!$AD$80:$AD$83</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2316,7 +3728,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AI$80:$AI$83</c:f>
+              <c:f>Indexing!$AI$80:$AI$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2441,7 +3853,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AD$80:$AD$83</c:f>
+              <c:f>Indexing!$AD$80:$AD$83</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2461,7 +3873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AE$80:$AE$83</c:f>
+              <c:f>Indexing!$AE$80:$AE$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2723,7 +4135,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AL$63</c:f>
+              <c:f>Indexing!$AL$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2744,7 +4156,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AK$64:$AK$68</c:f>
+              <c:f>Indexing!$AK$64:$AK$68</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2767,7 +4179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$64:$AL$68</c:f>
+              <c:f>Indexing!$AL$64:$AL$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2800,7 +4212,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AM$63</c:f>
+              <c:f>Indexing!$AM$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2821,7 +4233,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AK$64:$AK$68</c:f>
+              <c:f>Indexing!$AK$64:$AK$68</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2844,7 +4256,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$64:$AM$68</c:f>
+              <c:f>Indexing!$AM$64:$AM$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2877,7 +4289,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$63</c:f>
+              <c:f>Indexing!$AN$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2900,7 +4312,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AK$64:$AK$68</c:f>
+              <c:f>Indexing!$AK$64:$AK$68</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2923,7 +4335,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$64:$AN$68</c:f>
+              <c:f>Indexing!$AN$64:$AN$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2956,7 +4368,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AO$63</c:f>
+              <c:f>Indexing!$AO$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2979,7 +4391,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AK$64:$AK$68</c:f>
+              <c:f>Indexing!$AK$64:$AK$68</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3002,7 +4414,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$64:$AO$68</c:f>
+              <c:f>Indexing!$AO$64:$AO$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3035,7 +4447,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$63</c:f>
+              <c:f>Indexing!$AP$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3058,7 +4470,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AK$64:$AK$68</c:f>
+              <c:f>Indexing!$AK$64:$AK$68</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3081,7 +4493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$64:$AP$68</c:f>
+              <c:f>Indexing!$AP$64:$AP$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3114,7 +4526,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AQ$63</c:f>
+              <c:f>Indexing!$AQ$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3135,7 +4547,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AK$64:$AK$68</c:f>
+              <c:f>Indexing!$AK$64:$AK$68</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3158,7 +4570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$64:$AQ$68</c:f>
+              <c:f>Indexing!$AQ$64:$AQ$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5420,6 +6832,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5700,6 +7152,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6203,8 +7695,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6231,8 +7723,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6333,7 +7825,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6365,10 +7857,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6689,6 +8181,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6708,8 +8211,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6913,22 +8416,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7033,8 +8537,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7166,19 +8670,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7211,8 +8716,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7416,23 +8921,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7537,8 +9041,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7670,20 +9174,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7716,7 +9219,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8221,7 +9724,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8726,8 +10229,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8754,8 +10257,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8856,7 +10359,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8888,10 +10391,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9212,6 +10715,511 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -9243,6 +11251,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10097,6 +12621,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2A5453-F931-0146-B0DA-47DA9131BE85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4517DAB-4A38-B842-A40B-546286D059E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10396,8 +13001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE00D276-BD42-7F42-AA46-503412D3BF31}">
   <dimension ref="A1:AY83"/>
   <sheetViews>
-    <sheetView topLeftCell="AA80" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="AB64" sqref="AB64"/>
+    <sheetView topLeftCell="T2" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="AB50" sqref="AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10414,12 +13019,12 @@
     <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>44465</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="M2" t="s">
         <v>8</v>
       </c>
@@ -10427,7 +13032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -10470,11 +13075,14 @@
       <c r="AE3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG3" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -10496,10 +13104,10 @@
       <c r="N4">
         <v>640541</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Y4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="29" t="s">
         <v>53</v>
       </c>
       <c r="AA4" s="10">
@@ -10515,9 +13123,9 @@
         <v>15.77</v>
       </c>
       <c r="AE4" s="10"/>
-      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -10571,8 +13179,8 @@
         <f>Q5*10</f>
         <v>0.23202608</v>
       </c>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="32"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="30"/>
       <c r="AA5" s="10">
         <v>2</v>
       </c>
@@ -10586,9 +13194,9 @@
         <v>15.71</v>
       </c>
       <c r="AE5" s="10"/>
-      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -10642,8 +13250,8 @@
         <f t="shared" ref="W6:W8" si="4">Q6*10</f>
         <v>44.84491688</v>
       </c>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="32"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="30"/>
       <c r="AA6" s="10">
         <v>3</v>
       </c>
@@ -10657,9 +13265,9 @@
         <v>15.84</v>
       </c>
       <c r="AE6" s="10"/>
-      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -10713,8 +13321,8 @@
         <f t="shared" si="4"/>
         <v>16.345038880000001</v>
       </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="32"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="30"/>
       <c r="AA7" s="10">
         <v>4</v>
       </c>
@@ -10730,9 +13338,9 @@
       <c r="AE7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -10786,8 +13394,8 @@
         <f t="shared" si="4"/>
         <v>0.15918689999999999</v>
       </c>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="33"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="31"/>
       <c r="AA8" s="10" t="s">
         <v>48</v>
       </c>
@@ -10804,12 +13412,12 @@
         <v>15.797499999999999</v>
       </c>
       <c r="AE8" s="10"/>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <f>SUM(AB8:AE8)</f>
         <v>24.577500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>5</v>
       </c>
@@ -10828,8 +13436,8 @@
       <c r="H9">
         <v>2.8</v>
       </c>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="28" t="s">
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="32" t="s">
         <v>54</v>
       </c>
       <c r="AA9" s="13">
@@ -10845,11 +13453,11 @@
         <v>118.83</v>
       </c>
       <c r="AE9" s="13"/>
-      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="29"/>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="33"/>
       <c r="AA10" s="13">
         <v>2</v>
       </c>
@@ -10863,14 +13471,14 @@
         <v>118.36</v>
       </c>
       <c r="AE10" s="13"/>
-      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="29"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="33"/>
       <c r="AA11" s="13">
         <v>3</v>
       </c>
@@ -10884,9 +13492,9 @@
         <v>120.32</v>
       </c>
       <c r="AE11" s="13"/>
-      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>0</v>
       </c>
@@ -10902,8 +13510,8 @@
       <c r="H12" t="s">
         <v>1</v>
       </c>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="29"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="33"/>
       <c r="AA12" s="13">
         <v>4</v>
       </c>
@@ -10919,9 +13527,9 @@
       <c r="AE12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>5</v>
       </c>
@@ -10940,8 +13548,8 @@
       <c r="H13">
         <v>16.75</v>
       </c>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="30"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="34"/>
       <c r="AA13" s="13" t="s">
         <v>48</v>
       </c>
@@ -10958,19 +13566,19 @@
         <v>119.00999999999999</v>
       </c>
       <c r="AE13" s="13"/>
-      <c r="AF13" s="3">
+      <c r="AG13" s="3">
         <f>SUM(AB13:AE13)</f>
         <v>188.40249999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="Y14" s="27" t="s">
+      <c r="Y14" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="31" t="s">
+      <c r="Z14" s="29" t="s">
         <v>53</v>
       </c>
       <c r="AA14" s="10">
@@ -10988,17 +13596,17 @@
       <c r="AE14" s="10">
         <v>2.09</v>
       </c>
-      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="M15" t="s">
         <v>56</v>
       </c>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="32"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="30"/>
       <c r="AA15" s="10">
         <v>2</v>
       </c>
@@ -11014,14 +13622,14 @@
       <c r="AE15" s="10">
         <v>2.1</v>
       </c>
-      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="M16" t="s">
         <v>55</v>
       </c>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="32"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="30"/>
       <c r="AA16" s="10">
         <v>3</v>
       </c>
@@ -11037,14 +13645,14 @@
       <c r="AE16" s="10">
         <v>2.1</v>
       </c>
-      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M17" t="s">
         <v>26</v>
       </c>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="32"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="30"/>
       <c r="AA17" s="10">
         <v>4</v>
       </c>
@@ -11060,9 +13668,9 @@
       <c r="AE17" s="10">
         <v>2.11</v>
       </c>
-      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
     </row>
-    <row r="18" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
         <v>29</v>
@@ -11076,8 +13684,8 @@
       <c r="Q18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="33"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="31"/>
       <c r="AA18" s="10" t="s">
         <v>48</v>
       </c>
@@ -11097,12 +13705,12 @@
         <f>AVERAGE(AE14:AE17)</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <f>SUM(AB18:AE18)</f>
         <v>38.410000000000004</v>
       </c>
     </row>
-    <row r="19" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M19" s="3" t="s">
         <v>11</v>
       </c>
@@ -11116,8 +13724,8 @@
       <c r="Q19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="28" t="s">
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="32" t="s">
         <v>54</v>
       </c>
       <c r="AA19" s="13">
@@ -11135,9 +13743,9 @@
       <c r="AE19" s="13">
         <v>11.26</v>
       </c>
-      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
     </row>
-    <row r="20" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M20" s="3" t="s">
         <v>12</v>
       </c>
@@ -11154,8 +13762,8 @@
       <c r="Q20" s="3">
         <v>1</v>
       </c>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="29"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="33"/>
       <c r="AA20" s="13">
         <v>2</v>
       </c>
@@ -11171,9 +13779,9 @@
       <c r="AE20" s="13">
         <v>11.26</v>
       </c>
-      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
     </row>
-    <row r="21" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M21" s="3" t="s">
         <v>14</v>
       </c>
@@ -11190,8 +13798,8 @@
       <c r="Q21" s="3">
         <v>25</v>
       </c>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="29"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="33"/>
       <c r="AA21" s="13">
         <v>3</v>
       </c>
@@ -11207,9 +13815,9 @@
       <c r="AE21" s="13">
         <v>11.26</v>
       </c>
-      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
     </row>
-    <row r="22" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M22" s="3" t="s">
         <v>28</v>
       </c>
@@ -11226,8 +13834,8 @@
       <c r="Q22" s="3">
         <v>15</v>
       </c>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="29"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="33"/>
       <c r="AA22" s="13">
         <v>4</v>
       </c>
@@ -11243,9 +13851,9 @@
       <c r="AE22" s="13">
         <v>11.26</v>
       </c>
-      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
     </row>
-    <row r="23" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
@@ -11262,8 +13870,8 @@
       <c r="Q23" s="3">
         <v>1</v>
       </c>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="30"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="34"/>
       <c r="AA23" s="13" t="s">
         <v>48</v>
       </c>
@@ -11283,19 +13891,19 @@
         <f>AVERAGE(AE19:AE22)</f>
         <v>11.26</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <f>SUM(AB23:AE23)</f>
         <v>277.42999999999995</v>
       </c>
     </row>
-    <row r="24" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="13:33" x14ac:dyDescent="0.2">
       <c r="U24" t="s">
         <v>41</v>
       </c>
-      <c r="Y24" s="27" t="s">
+      <c r="Y24" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="31" t="s">
+      <c r="Z24" s="29" t="s">
         <v>53</v>
       </c>
       <c r="AA24" s="10">
@@ -11313,17 +13921,17 @@
       <c r="AE24" s="10">
         <v>2.06</v>
       </c>
-      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
     </row>
-    <row r="25" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M25" t="s">
         <v>37</v>
       </c>
       <c r="U25" t="s">
         <v>46</v>
       </c>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="32"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="30"/>
       <c r="AA25" s="10">
         <v>2</v>
       </c>
@@ -11339,9 +13947,9 @@
       <c r="AE25" s="10">
         <v>2.06</v>
       </c>
-      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
     </row>
-    <row r="26" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
         <v>29</v>
@@ -11361,8 +13969,8 @@
       <c r="W26" t="s">
         <v>51</v>
       </c>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="32"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="30"/>
       <c r="AA26" s="10">
         <v>3</v>
       </c>
@@ -11378,9 +13986,9 @@
       <c r="AE26" s="10">
         <v>2.06</v>
       </c>
-      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
     </row>
-    <row r="27" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M27" s="3" t="s">
         <v>11</v>
       </c>
@@ -11397,8 +14005,8 @@
       <c r="U27" t="s">
         <v>43</v>
       </c>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="32"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="30"/>
       <c r="AA27" s="10">
         <v>4</v>
       </c>
@@ -11414,9 +14022,9 @@
       <c r="AE27" s="10">
         <v>2.06</v>
       </c>
-      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
     </row>
-    <row r="28" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M28" s="3" t="s">
         <v>12</v>
       </c>
@@ -11440,8 +14048,8 @@
       <c r="U28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="33"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="31"/>
       <c r="AA28" s="10" t="s">
         <v>48</v>
       </c>
@@ -11461,12 +14069,12 @@
         <f>AVERAGE(AE24:AE27)</f>
         <v>2.06</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AG28" s="3">
         <f>SUM(AB28:AE28)</f>
         <v>209.655</v>
       </c>
     </row>
-    <row r="29" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M29" s="3" t="s">
         <v>14</v>
       </c>
@@ -11483,8 +14091,8 @@
       <c r="Q29" s="3">
         <v>5</v>
       </c>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="28" t="s">
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="32" t="s">
         <v>54</v>
       </c>
       <c r="AA29" s="13">
@@ -11502,9 +14110,9 @@
       <c r="AE29" s="13">
         <v>11.04</v>
       </c>
-      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
     </row>
-    <row r="30" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
@@ -11521,8 +14129,8 @@
       <c r="Q30" s="3">
         <v>2</v>
       </c>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="29"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="33"/>
       <c r="AA30" s="13">
         <v>2</v>
       </c>
@@ -11538,9 +14146,9 @@
       <c r="AE30" s="13">
         <v>11.08</v>
       </c>
-      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
     </row>
-    <row r="31" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M31" s="3" t="s">
         <v>27</v>
       </c>
@@ -11557,8 +14165,8 @@
       <c r="Q31" s="3">
         <v>1</v>
       </c>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="29"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="33"/>
       <c r="AA31" s="13">
         <v>3</v>
       </c>
@@ -11574,11 +14182,11 @@
       <c r="AE31" s="13">
         <v>11.08</v>
       </c>
-      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
     </row>
-    <row r="32" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="29"/>
+    <row r="32" spans="13:33" x14ac:dyDescent="0.2">
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="33"/>
       <c r="AA32" s="13">
         <v>4</v>
       </c>
@@ -11594,17 +14202,17 @@
       <c r="AE32" s="13">
         <v>11.08</v>
       </c>
-      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
     </row>
-    <row r="33" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M33" t="s">
         <v>39</v>
       </c>
       <c r="T33">
         <v>770839982</v>
       </c>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="30"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="34"/>
       <c r="AA33" s="13" t="s">
         <v>48</v>
       </c>
@@ -11624,12 +14232,12 @@
         <f>AVERAGE(AE29:AE32)</f>
         <v>11.069999999999999</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <f>SUM(AB33:AE33)</f>
         <v>1512.2650000000001</v>
       </c>
     </row>
-    <row r="34" spans="13:32" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="13:33" ht="18" x14ac:dyDescent="0.2">
       <c r="M34" t="s">
         <v>42</v>
       </c>
@@ -11639,10 +14247,10 @@
       <c r="T34" s="2">
         <v>26843545600</v>
       </c>
-      <c r="Y34" s="27" t="s">
+      <c r="Y34" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="Z34" s="31" t="s">
+      <c r="Z34" s="29" t="s">
         <v>53</v>
       </c>
       <c r="AA34" s="10">
@@ -11660,9 +14268,9 @@
       <c r="AE34" s="10">
         <v>2.06</v>
       </c>
-      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
     </row>
-    <row r="35" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M35" t="s">
         <v>41</v>
       </c>
@@ -11676,8 +14284,8 @@
       <c r="W35" t="s">
         <v>51</v>
       </c>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="32"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="30"/>
       <c r="AA35" s="10">
         <v>2</v>
       </c>
@@ -11693,9 +14301,9 @@
       <c r="AE35" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
     </row>
-    <row r="36" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M36" t="s">
         <v>46</v>
       </c>
@@ -11705,8 +14313,8 @@
       <c r="T36" s="21">
         <v>21474836480</v>
       </c>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="32"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="30"/>
       <c r="AA36" s="10">
         <v>3</v>
       </c>
@@ -11722,9 +14330,9 @@
       <c r="AE36" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
     </row>
-    <row r="37" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M37" t="s">
         <v>45</v>
       </c>
@@ -11746,8 +14354,8 @@
         <f>T34/T36</f>
         <v>1.25</v>
       </c>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="32"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="30"/>
       <c r="AA37" s="10">
         <v>4</v>
       </c>
@@ -11763,9 +14371,9 @@
       <c r="AE37" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
     </row>
-    <row r="38" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M38" t="s">
         <v>43</v>
       </c>
@@ -11783,8 +14391,8 @@
         <f>Q38/(10^9)</f>
         <v>0.44970119600000003</v>
       </c>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="33"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="31"/>
       <c r="AA38" s="10" t="s">
         <v>48</v>
       </c>
@@ -11804,20 +14412,20 @@
         <f>AVERAGE(AE34:AE37)</f>
         <v>2.0524999999999998</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AG38" s="3">
         <f>SUM(AB38:AE38)</f>
         <v>196.79000000000002</v>
       </c>
     </row>
-    <row r="39" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M39" t="s">
         <v>44</v>
       </c>
       <c r="N39">
         <v>196.46</v>
       </c>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="28" t="s">
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="32" t="s">
         <v>54</v>
       </c>
       <c r="AA39" s="13">
@@ -11835,9 +14443,9 @@
       <c r="AE39" s="13">
         <v>11.02</v>
       </c>
-      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
     </row>
-    <row r="40" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="13:33" x14ac:dyDescent="0.2">
       <c r="P40" t="s">
         <v>63</v>
       </c>
@@ -11849,8 +14457,8 @@
         <f>Q40/10^9</f>
         <v>4.9207099999999997E-2</v>
       </c>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="29"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="33"/>
       <c r="AA40" s="13">
         <v>2</v>
       </c>
@@ -11866,9 +14474,9 @@
       <c r="AE40" s="13">
         <v>11.02</v>
       </c>
-      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
     </row>
-    <row r="41" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="13:33" x14ac:dyDescent="0.2">
       <c r="P41" t="s">
         <v>64</v>
       </c>
@@ -11880,8 +14488,8 @@
         <f>Q41/10^9</f>
         <v>0.38889000000000001</v>
       </c>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="29"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="33"/>
       <c r="AA41" s="13">
         <v>3</v>
       </c>
@@ -11897,12 +14505,12 @@
       <c r="AE41" s="13">
         <v>11.02</v>
       </c>
-      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
     </row>
-    <row r="42" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="13:33" x14ac:dyDescent="0.2">
       <c r="R42" s="5"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="29"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="33"/>
       <c r="AA42" s="13">
         <v>4</v>
       </c>
@@ -11918,12 +14526,12 @@
       <c r="AE42" s="13">
         <v>11.03</v>
       </c>
-      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
     </row>
-    <row r="43" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="13:33" x14ac:dyDescent="0.2">
       <c r="R43" s="5"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="30"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="34"/>
       <c r="AA43" s="13" t="s">
         <v>48</v>
       </c>
@@ -11943,22 +14551,22 @@
         <f>AVERAGE(AE39:AE42)</f>
         <v>11.022500000000001</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AG43" s="3">
         <f>SUM(AB43:AE43)</f>
         <v>1422.9975000000002</v>
       </c>
     </row>
-    <row r="44" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M44" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y44" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z44" s="31" t="s">
+      <c r="Y44" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z44" s="29" t="s">
         <v>53</v>
       </c>
       <c r="AA44" s="10">
@@ -11968,9 +14576,9 @@
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
-      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
     </row>
-    <row r="45" spans="13:32" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="13:33" ht="18" x14ac:dyDescent="0.2">
       <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
@@ -11978,8 +14586,8 @@
         <v>15.93</v>
       </c>
       <c r="R45" s="5"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="32"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="30"/>
       <c r="AA45" s="10">
         <v>2</v>
       </c>
@@ -11987,17 +14595,17 @@
       <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
-      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
     </row>
-    <row r="46" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N46" s="3">
         <v>51.41</v>
       </c>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="32"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="30"/>
       <c r="AA46" s="10">
         <v>3</v>
       </c>
@@ -12005,17 +14613,17 @@
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
-      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
     </row>
-    <row r="47" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M47" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N47" s="3">
         <v>197.34</v>
       </c>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="32"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="30"/>
       <c r="AA47" s="10">
         <v>4</v>
       </c>
@@ -12023,17 +14631,17 @@
       <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
-      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
     </row>
-    <row r="48" spans="13:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="13:33" x14ac:dyDescent="0.2">
       <c r="M48" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N48" s="7">
         <v>188.89</v>
       </c>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="33"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="31"/>
       <c r="AA48" s="10" t="s">
         <v>48</v>
       </c>
@@ -12053,28 +14661,42 @@
         <f>AVERAGE(AE44:AE47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF48" s="3" t="e">
+      <c r="AG48" s="3" t="e">
         <f>SUM(AB48:AE48)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="25:51" x14ac:dyDescent="0.2">
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="28" t="s">
+    <row r="49" spans="25:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="32" t="s">
         <v>54</v>
       </c>
       <c r="AA49" s="13">
         <v>1</v>
       </c>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="3"/>
+      <c r="AB49" s="13">
+        <v>68.349999999999994</v>
+      </c>
+      <c r="AC49" s="27">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="AD49" s="27">
+        <v>182.61</v>
+      </c>
+      <c r="AE49" s="27">
+        <v>11.23</v>
+      </c>
+      <c r="AF49" s="35">
+        <v>62.33</v>
+      </c>
+      <c r="AG49" s="3">
+        <f>SUM(AB49:AF49)</f>
+        <v>340.96</v>
+      </c>
     </row>
     <row r="50" spans="25:51" x14ac:dyDescent="0.2">
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="29"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="33"/>
       <c r="AA50" s="13">
         <v>2</v>
       </c>
@@ -12082,11 +14704,11 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
       <c r="AE50" s="13"/>
-      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
     </row>
     <row r="51" spans="25:51" x14ac:dyDescent="0.2">
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="29"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="33"/>
       <c r="AA51" s="13">
         <v>3</v>
       </c>
@@ -12094,11 +14716,11 @@
       <c r="AC51" s="13"/>
       <c r="AD51" s="13"/>
       <c r="AE51" s="13"/>
-      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
     </row>
     <row r="52" spans="25:51" x14ac:dyDescent="0.2">
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="29"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="33"/>
       <c r="AA52" s="13">
         <v>4</v>
       </c>
@@ -12106,33 +14728,33 @@
       <c r="AC52" s="13"/>
       <c r="AD52" s="13"/>
       <c r="AE52" s="13"/>
-      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
     </row>
     <row r="53" spans="25:51" x14ac:dyDescent="0.2">
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="30"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="34"/>
       <c r="AA53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AB53" s="13" t="e">
+      <c r="AB53" s="13">
         <f>AVERAGE(AB49:AB52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC53" s="13" t="e">
+        <v>68.349999999999994</v>
+      </c>
+      <c r="AC53" s="13">
         <f>AVERAGE(AC49:AC52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD53" s="13" t="e">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="AD53" s="13">
         <f>AVERAGE(AD49:AD52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE53" s="13" t="e">
+        <v>182.61</v>
+      </c>
+      <c r="AE53" s="13">
         <f>AVERAGE(AE49:AE52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF53" s="3" t="e">
+        <v>11.23</v>
+      </c>
+      <c r="AG53" s="3">
         <f>SUM(AB53:AE53)</f>
-        <v>#DIV/0!</v>
+        <v>278.63</v>
       </c>
     </row>
     <row r="59" spans="25:51" x14ac:dyDescent="0.2">
@@ -12145,24 +14767,24 @@
         <v>39</v>
       </c>
       <c r="Z60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA60" s="3" t="s">
+      <c r="AB60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC60" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="AD60" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y61" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z61" s="10">
         <v>8.7800000000000011</v>
@@ -12183,7 +14805,7 @@
     </row>
     <row r="62" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z62" s="3">
         <v>8.7725000000000009</v>
@@ -12204,7 +14826,7 @@
     </row>
     <row r="63" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y63" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z63" s="3">
         <v>6.8725000000000005</v>
@@ -12226,48 +14848,48 @@
         <v>39</v>
       </c>
       <c r="AL63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AM63" s="3" t="s">
+      <c r="AN63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO63" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP63" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ63" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="AN63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO63" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP63" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ63" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="AR63" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AS63" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT63" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AT63" s="11" t="s">
+      <c r="AU63" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AU63" s="11" t="s">
+      <c r="AV63" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AV63" s="11" t="s">
+      <c r="AX63" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AX63" s="11" t="s">
+      <c r="AY63" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="AY63" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="64" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y64" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z64" s="3">
         <v>8.7725000000000009</v>
@@ -12286,7 +14908,7 @@
         <v>209.655</v>
       </c>
       <c r="AK64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL64">
         <v>17.45</v>
@@ -12317,7 +14939,7 @@
     </row>
     <row r="65" spans="25:51" x14ac:dyDescent="0.2">
       <c r="AK65" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL65" s="10">
         <v>69.392499999999998</v>
@@ -12356,7 +14978,7 @@
     </row>
     <row r="66" spans="25:51" x14ac:dyDescent="0.2">
       <c r="AK66" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL66" s="13">
         <v>69.31</v>
@@ -12395,7 +15017,7 @@
     </row>
     <row r="67" spans="25:51" x14ac:dyDescent="0.2">
       <c r="AK67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL67" s="3">
         <v>54.202500000000001</v>
@@ -12442,7 +15064,7 @@
     </row>
     <row r="68" spans="25:51" x14ac:dyDescent="0.2">
       <c r="AK68" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL68" s="3">
         <v>69.055000000000007</v>
@@ -12515,19 +15137,19 @@
         <v>39</v>
       </c>
       <c r="Z72" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA72" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AA72" s="3" t="s">
+      <c r="AB72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC72" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC72" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="AD72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AR72">
         <f>AR68/AR66</f>
@@ -12536,7 +15158,7 @@
     </row>
     <row r="73" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y73" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z73" s="10">
         <v>69.392499999999998</v>
@@ -12558,7 +15180,7 @@
     </row>
     <row r="74" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z74" s="13">
         <v>69.31</v>
@@ -12581,7 +15203,7 @@
     </row>
     <row r="75" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z75" s="3">
         <v>54.202500000000001</v>
@@ -12602,7 +15224,7 @@
     </row>
     <row r="76" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z76" s="3">
         <v>69.055000000000007</v>
@@ -12641,14 +15263,14 @@
     </row>
     <row r="80" spans="25:51" x14ac:dyDescent="0.2">
       <c r="AD80" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE80">
         <f>AD73/MAX(AD73:AD76)</f>
         <v>0.12458299306007874</v>
       </c>
       <c r="AH80" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI80">
         <f>AD61/MAX(AD61:AD64)</f>
@@ -12657,14 +15279,14 @@
     </row>
     <row r="81" spans="30:35" x14ac:dyDescent="0.2">
       <c r="AD81" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE81">
         <f>AD74/MAX(AD74:AD77)</f>
         <v>0.18345329687587819</v>
       </c>
       <c r="AH81" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI81">
         <f>AD62/MAX(AD62:AD65)</f>
@@ -12673,14 +15295,14 @@
     </row>
     <row r="82" spans="30:35" x14ac:dyDescent="0.2">
       <c r="AD82" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE82">
         <f>AD75/MAX(AD75:AD78)</f>
         <v>0.94097099384036531</v>
       </c>
       <c r="AH82" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI82">
         <f>AD63/MAX(AD63:AD66)</f>
@@ -12689,14 +15311,14 @@
     </row>
     <row r="83" spans="30:35" x14ac:dyDescent="0.2">
       <c r="AD83" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE83">
         <f>AD76/MAX(AD76:AD79)</f>
         <v>1</v>
       </c>
       <c r="AH83" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI83">
         <f>AD64/MAX(AD64:AD67)</f>
@@ -12705,6 +15327,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Y4:Y13"/>
+    <mergeCell ref="Z9:Z13"/>
+    <mergeCell ref="Z4:Z8"/>
+    <mergeCell ref="Y14:Y23"/>
+    <mergeCell ref="Z14:Z18"/>
+    <mergeCell ref="Z19:Z23"/>
     <mergeCell ref="Y44:Y53"/>
     <mergeCell ref="Z44:Z48"/>
     <mergeCell ref="Z49:Z53"/>
@@ -12714,12 +15342,6 @@
     <mergeCell ref="Y34:Y43"/>
     <mergeCell ref="Z34:Z38"/>
     <mergeCell ref="Z39:Z43"/>
-    <mergeCell ref="Y4:Y13"/>
-    <mergeCell ref="Z9:Z13"/>
-    <mergeCell ref="Z4:Z8"/>
-    <mergeCell ref="Y14:Y23"/>
-    <mergeCell ref="Z14:Z18"/>
-    <mergeCell ref="Z19:Z23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12751,19 +15373,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -12840,7 +15462,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <f>AVERAGE(B3:B6)</f>
@@ -12869,7 +15491,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" s="22"/>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -12879,18 +15501,18 @@
       <c r="E17" s="22"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="I18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="3">
         <v>17.7075</v>
@@ -12903,7 +15525,7 @@
         <v>1.7583303849916881E-7</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O18" s="3">
         <v>1.7583303849916881E-7</v>
@@ -12915,7 +15537,7 @@
     </row>
     <row r="19" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="I19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="3">
         <v>88.155000000000001</v>
@@ -12928,7 +15550,7 @@
         <v>6.0789718121342221E-5</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O19" s="3">
         <v>6.0789718121342221E-5</v>
@@ -12940,7 +15562,7 @@
     </row>
     <row r="20" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="I20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20" s="3">
         <v>74.352500000000006</v>
@@ -12953,7 +15575,7 @@
         <v>7.278294097272897E-7</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O20" s="3">
         <v>7.278294097272897E-7</v>
@@ -12966,7 +15588,7 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E22" s="22"/>
       <c r="N22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O22">
         <f>O18*10^6</f>
@@ -12976,7 +15598,7 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E23" s="22"/>
       <c r="N23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23">
         <f t="shared" ref="O23:O24" si="3">O19*10^6</f>
@@ -12986,7 +15608,7 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E24" s="22"/>
       <c r="N24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
@@ -12996,7 +15618,7 @@
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" s="22"/>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
@@ -13009,18 +15631,18 @@
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="I28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" s="3">
         <v>77.78</v>
@@ -13039,7 +15661,7 @@
     </row>
     <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="I29" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" s="3">
         <v>675.85</v>
@@ -13062,7 +15684,7 @@
     </row>
     <row r="30" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="I30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="3">
         <v>552.95000000000005</v>
@@ -13085,30 +15707,30 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="3">
         <v>17.71</v>
@@ -13128,7 +15750,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="3">
         <v>77.78</v>
@@ -13149,30 +15771,30 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
       <c r="B42" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="E42" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="F42" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="26">
         <f>B35/$F$35</f>
@@ -13196,7 +15818,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="26">
         <f>B36/$F$36</f>
@@ -13227,10 +15849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74644A4F-C1BE-604C-BA0D-D877AF924122}">
-  <dimension ref="A2:K33"/>
+  <dimension ref="A2:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13238,17 +15860,21 @@
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="M2" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>10</v>
       </c>
@@ -13273,42 +15899,69 @@
       <c r="K3">
         <v>10000</v>
       </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>1000</v>
+      </c>
+      <c r="Q3">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="34">
+        <v>98</v>
+      </c>
+      <c r="B4" s="27">
         <v>3.3679000000000001E-2</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="27">
         <v>2.6126900000000002</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="27">
         <v>195.792</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="27">
         <v>3279.26</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="34">
+        <v>98</v>
+      </c>
+      <c r="H4" s="27">
         <v>7.1300000000000001E-3</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="27">
         <v>6.9446999999999995E-2</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="27">
         <v>0.416653</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="27">
         <v>4.9131999999999998</v>
       </c>
+      <c r="M4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="27">
+        <v>1.531E-3</v>
+      </c>
+      <c r="O4" s="27">
+        <v>4.2783000000000002E-2</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0.24047399999999999</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>2.4996399999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <f>B4/B3</f>
@@ -13327,7 +15980,7 @@
         <v>0.327926</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <f>H4/H3</f>
@@ -13338,17 +15991,36 @@
         <v>6.9446999999999998E-4</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="I5:K5" si="1">J4/J3</f>
+        <f t="shared" ref="J5:K5" si="1">J4/J3</f>
         <v>4.1665300000000001E-4</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
         <v>4.9131999999999995E-4</v>
       </c>
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <f>N4/N3</f>
+        <v>1.5310000000000001E-4</v>
+      </c>
+      <c r="O5">
+        <f>O4/O3</f>
+        <v>4.2783000000000003E-4</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:Q5" si="2">P4/P3</f>
+        <v>2.4047399999999999E-4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>2.4996399999999998E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <f>1/B5</f>
@@ -13359,7 +16031,7 @@
         <v>38.27472834511557</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:E6" si="2">1/D5</f>
+        <f t="shared" ref="D6" si="3">1/D5</f>
         <v>5.1074609789981205</v>
       </c>
       <c r="E6">
@@ -13367,112 +16039,170 @@
         <v>3.0494684776443468</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6">
         <f>1/H5</f>
         <v>1402.5245441795232</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:K6" si="3">1/I5</f>
+        <f t="shared" ref="I6:K6" si="4">1/I5</f>
         <v>1439.9470099500338</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2400.0787225821005</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2035.3333876088905</v>
       </c>
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6">
+        <f>1/N5</f>
+        <v>6531.6786414108419</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:Q6" si="5">1/O5</f>
+        <v>2337.3769955356097</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>4158.4537205685438</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>4000.5760829559458</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="27">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C7" s="27">
+        <v>6.7100000000000005E-4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="27">
+        <v>6.7400000000000001E-4</v>
+      </c>
+      <c r="I7" s="27">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="27">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="O7" s="27">
+        <v>4.6E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="34">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="C7" s="34">
-        <v>6.7100000000000005E-4</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B8" s="27">
+        <v>9.9399999999999992E-3</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.14436399999999999</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1.1071770000000001</v>
+      </c>
+      <c r="E8" s="27">
+        <v>7.3693989999999996</v>
+      </c>
+      <c r="G8" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="34">
-        <v>6.7400000000000001E-4</v>
-      </c>
-      <c r="I7" s="34">
-        <v>3.8000000000000002E-4</v>
+      <c r="H8" s="27">
+        <v>7.7800000000000005E-4</v>
+      </c>
+      <c r="I8" s="27">
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="J8" s="27">
+        <v>9.9500000000000001E-4</v>
+      </c>
+      <c r="K8" s="27">
+        <v>1.0020000000000001E-3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" s="27">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="O8" s="27">
+        <v>1.0252000000000001E-2</v>
+      </c>
+      <c r="P8" s="27">
+        <v>3.9309999999999998E-2</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>5.9423999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B9" s="27">
         <v>9.9399999999999992E-3</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C9" s="27">
         <v>0.14436399999999999</v>
       </c>
-      <c r="D8" s="34">
-        <v>1.1071770000000001</v>
-      </c>
-      <c r="E8" s="34">
-        <v>7.3693989999999996</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="D9" s="27">
+        <v>0.89703100000000002</v>
+      </c>
+      <c r="E9" s="27">
+        <v>5.8680770000000004</v>
+      </c>
+      <c r="G9" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H9" s="27">
         <v>7.7800000000000005E-4</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I9" s="27">
         <v>9.7900000000000005E-4</v>
       </c>
-      <c r="J8" s="34">
-        <v>9.9500000000000001E-4</v>
-      </c>
-      <c r="K8" s="34">
-        <v>1.0020000000000001E-3</v>
+      <c r="J9" s="27">
+        <v>9.1799999999999998E-4</v>
+      </c>
+      <c r="K9" s="27">
+        <v>9.1799999999999998E-4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="27">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="O9" s="27">
+        <v>1.0252000000000001E-2</v>
+      </c>
+      <c r="P9" s="27">
+        <v>2.3050000000000002E-3</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>2.4480000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="34">
-        <v>9.9399999999999992E-3</v>
-      </c>
-      <c r="C9" s="34">
-        <v>0.14436399999999999</v>
-      </c>
-      <c r="D9" s="34">
-        <v>0.89703100000000002</v>
-      </c>
-      <c r="E9" s="34">
-        <v>5.8680770000000004</v>
-      </c>
-      <c r="G9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="34">
-        <v>7.7800000000000005E-4</v>
-      </c>
-      <c r="I9" s="34">
-        <v>9.7900000000000005E-4</v>
-      </c>
-      <c r="J9" s="34">
-        <v>9.1799999999999998E-4</v>
-      </c>
-      <c r="K9" s="34">
-        <v>9.1799999999999998E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -13484,7 +16214,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>10</v>
@@ -13504,33 +16234,33 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="34">
+        <v>98</v>
+      </c>
+      <c r="B14" s="27">
         <v>5.0730000000000003E-3</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="27">
         <v>0.148647</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="27">
         <v>0.78645200000000004</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="27">
         <v>7.7251399999999997</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <f>B14/B13</f>
@@ -13554,9 +16284,9 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16">
         <f>1/B15</f>
@@ -13582,12 +16312,12 @@
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="34">
+        <v>101</v>
+      </c>
+      <c r="B17" s="27">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="27">
         <v>2.8E-5</v>
       </c>
       <c r="D17" s="2"/>
@@ -13600,18 +16330,18 @@
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="34">
+        <v>102</v>
+      </c>
+      <c r="B18" s="27">
         <v>1.9580000000000001E-3</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="27">
         <v>2.8938999999999999E-2</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="27">
         <v>0.108019</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="27">
         <v>0.150508</v>
       </c>
       <c r="G18" s="2"/>
@@ -13622,18 +16352,18 @@
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="34">
+        <v>103</v>
+      </c>
+      <c r="B19" s="27">
         <v>1.9580000000000001E-3</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="27">
         <v>2.8938999999999999E-2</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="27">
         <v>8.2419999999999993E-3</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="27">
         <v>6.1221999999999999E-2</v>
       </c>
       <c r="G19" s="2"/>
@@ -13644,12 +16374,12 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2">
         <v>10</v>
@@ -13666,75 +16396,75 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25">
         <f>H6</f>
         <v>1402.5245441795232</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:E25" si="4">I6</f>
+        <f t="shared" ref="C25:E25" si="6">I6</f>
         <v>1439.9470099500338</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2400.0787225821005</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2035.3333876088905</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <f>B6</f>
         <v>296.92092995635261</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:E26" si="5">C6</f>
+        <f t="shared" ref="C26:E26" si="7">C6</f>
         <v>38.27472834511557</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1074609789981205</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0494684776443468</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27">
         <f>B16</f>
         <v>1971.2201852946973</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:E27" si="6">C16</f>
+        <f t="shared" ref="C27:E27" si="8">C16</f>
         <v>672.73473396704946</v>
       </c>
       <c r="D27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1271.5334184413034</v>
       </c>
       <c r="E27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1294.4749221373336</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2">
         <v>10</v>
@@ -13751,65 +16481,802 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <f>H9</f>
         <v>7.7800000000000005E-4</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:E31" si="7">I9</f>
+        <f t="shared" ref="C31:E31" si="9">I9</f>
         <v>9.7900000000000005E-4</v>
       </c>
       <c r="D31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.1799999999999998E-4</v>
       </c>
       <c r="E31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.1799999999999998E-4</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <f>B9</f>
         <v>9.9399999999999992E-3</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:E32" si="8">C9</f>
+        <f t="shared" ref="C32:E32" si="10">C9</f>
         <v>0.14436399999999999</v>
       </c>
       <c r="D32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.89703100000000002</v>
       </c>
       <c r="E32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.8680770000000004</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33">
         <f>B19</f>
         <v>1.9580000000000001E-3</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:E33" si="9">C19</f>
+        <f t="shared" ref="C33:E33" si="11">C19</f>
         <v>2.8938999999999999E-2</v>
       </c>
       <c r="D33">
+        <f t="shared" si="11"/>
+        <v>8.2419999999999993E-3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="11"/>
+        <v>6.1221999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E6D4B-CBE1-6040-B05A-6A93103A9872}">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <v>10000</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>1000</v>
+      </c>
+      <c r="Q2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="27">
+        <v>3.3679000000000001E-2</v>
+      </c>
+      <c r="C3" s="27">
+        <v>2.6126900000000002</v>
+      </c>
+      <c r="D3" s="27">
+        <v>195.792</v>
+      </c>
+      <c r="E3" s="27">
+        <v>3279.26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="27">
+        <v>7.1300000000000001E-3</v>
+      </c>
+      <c r="I3" s="27">
+        <v>6.9446999999999995E-2</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0.416653</v>
+      </c>
+      <c r="K3" s="27">
+        <v>4.9131999999999998</v>
+      </c>
+      <c r="M3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="27">
+        <v>7.7510000000000001E-3</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0.23369300000000001</v>
+      </c>
+      <c r="P3" s="27">
+        <v>2.2298499999999999</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>22.678699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <f>B3/B2</f>
+        <v>3.3679000000000001E-3</v>
+      </c>
+      <c r="C4">
+        <f>C3/C2</f>
+        <v>2.6126900000000002E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:E4" si="0">D3/D2</f>
+        <v>0.19579199999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.327926</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <f>H3/H2</f>
+        <v>7.1299999999999998E-4</v>
+      </c>
+      <c r="I4">
+        <f>I3/I2</f>
+        <v>6.9446999999999998E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:K4" si="1">J3/J2</f>
+        <v>4.1665300000000001E-4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4.9131999999999995E-4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <f>N3/N2</f>
+        <v>7.7510000000000003E-4</v>
+      </c>
+      <c r="O4">
+        <f>O3/O2</f>
+        <v>2.3369300000000001E-3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:Q4" si="2">P3/P2</f>
+        <v>2.2298499999999998E-3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>2.26787E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <f>1/B4</f>
+        <v>296.92092995635261</v>
+      </c>
+      <c r="C5">
+        <f>1/C4</f>
+        <v>38.27472834511557</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5" si="3">1/D4</f>
+        <v>5.1074609789981205</v>
+      </c>
+      <c r="E5">
+        <f>1/E4</f>
+        <v>3.0494684776443468</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5">
+        <f>1/H4</f>
+        <v>1402.5245441795232</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:K5" si="4">1/I4</f>
+        <v>1439.9470099500338</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>2400.0787225821005</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>2035.3333876088905</v>
+      </c>
+      <c r="M5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5">
+        <f>1/N4</f>
+        <v>1290.1561088891756</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:Q5" si="5">1/O4</f>
+        <v>427.9118330459192</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>448.4606587887078</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>440.94238205893635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="27">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C6" s="27">
+        <v>6.7100000000000005E-4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="27">
+        <v>6.7400000000000001E-4</v>
+      </c>
+      <c r="I6" s="27">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="27">
+        <v>2.12E-4</v>
+      </c>
+      <c r="O6" s="27">
+        <v>6.2000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="27">
+        <v>9.9399999999999992E-3</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.14436399999999999</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1.1071770000000001</v>
+      </c>
+      <c r="E7" s="27">
+        <v>7.3693989999999996</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="27">
+        <v>7.7800000000000005E-4</v>
+      </c>
+      <c r="I7" s="27">
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="J7" s="27">
+        <v>9.9500000000000001E-4</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1.0020000000000001E-3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="27">
+        <v>2.8630000000000001E-3</v>
+      </c>
+      <c r="O7" s="27">
+        <v>4.8311E-2</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0.27530700000000002</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>0.51362600000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27">
+        <v>9.9399999999999992E-3</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.14436399999999999</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.89703100000000002</v>
+      </c>
+      <c r="E8" s="27">
+        <v>5.8680770000000004</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="27">
+        <v>7.7800000000000005E-4</v>
+      </c>
+      <c r="I8" s="27">
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="J8" s="27">
+        <v>9.1799999999999998E-4</v>
+      </c>
+      <c r="K8" s="27">
+        <v>9.1799999999999998E-4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="27">
+        <v>2.8630000000000001E-3</v>
+      </c>
+      <c r="O8" s="27">
+        <v>4.8311E-2</v>
+      </c>
+      <c r="P8" s="27">
+        <v>2.1551000000000001E-2</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>3.1411000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="27">
+        <v>5.0730000000000003E-3</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.148647</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.78645200000000004</v>
+      </c>
+      <c r="E13" s="27">
+        <v>7.7251399999999997</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <f>B13/B12</f>
+        <v>5.0730000000000003E-4</v>
+      </c>
+      <c r="C14">
+        <f>C13/C12</f>
+        <v>1.4864699999999999E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <f>D13/D12</f>
+        <v>7.8645200000000009E-4</v>
+      </c>
+      <c r="E14" s="2">
+        <f>E13/E12</f>
+        <v>7.7251399999999997E-4</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15">
+        <f>1/B14</f>
+        <v>1971.2201852946973</v>
+      </c>
+      <c r="C15">
+        <f>1/C14</f>
+        <v>672.73473396704946</v>
+      </c>
+      <c r="D15" s="2">
+        <f>1/D14</f>
+        <v>1271.5334184413034</v>
+      </c>
+      <c r="E15" s="2">
+        <f>1/E14</f>
+        <v>1294.4749221373336</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="27">
+        <v>1E-4</v>
+      </c>
+      <c r="C16" s="27">
+        <v>2.8E-5</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="27">
+        <v>1.9580000000000001E-3</v>
+      </c>
+      <c r="C17" s="27">
+        <v>2.8938999999999999E-2</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.108019</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0.150508</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="27">
+        <v>1.9580000000000001E-3</v>
+      </c>
+      <c r="C18" s="27">
+        <v>2.8938999999999999E-2</v>
+      </c>
+      <c r="D18" s="27">
+        <v>8.2419999999999993E-3</v>
+      </c>
+      <c r="E18" s="27">
+        <v>6.1221999999999999E-2</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <f>H5</f>
+        <v>1402.5245441795232</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:E24" si="6">I5</f>
+        <v>1439.9470099500338</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>2400.0787225821005</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>2035.3333876088905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25">
+        <f>B5</f>
+        <v>296.92092995635261</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:E25" si="7">C5</f>
+        <v>38.27472834511557</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="7"/>
+        <v>5.1074609789981205</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>3.0494684776443468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26">
+        <f>B15</f>
+        <v>1971.2201852946973</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:E26" si="8">C15</f>
+        <v>672.73473396704946</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="8"/>
+        <v>1271.5334184413034</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="8"/>
+        <v>1294.4749221373336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27">
+        <f>N5</f>
+        <v>1290.1561088891756</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:E27" si="9">O5</f>
+        <v>427.9118330459192</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="9"/>
+        <v>448.4606587887078</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="9"/>
+        <v>440.94238205893635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>100</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31">
+        <f>H8</f>
+        <v>7.7800000000000005E-4</v>
+      </c>
+      <c r="C31">
+        <f>I8</f>
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="D31">
+        <f>J8</f>
+        <v>9.1799999999999998E-4</v>
+      </c>
+      <c r="E31">
+        <f>K8</f>
+        <v>9.1799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <f>B8</f>
+        <v>9.9399999999999992E-3</v>
+      </c>
+      <c r="C32">
+        <f>C8</f>
+        <v>0.14436399999999999</v>
+      </c>
+      <c r="D32">
+        <f>D8</f>
+        <v>0.89703100000000002</v>
+      </c>
+      <c r="E32">
+        <f>E8</f>
+        <v>5.8680770000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33">
+        <f>B18</f>
+        <v>1.9580000000000001E-3</v>
+      </c>
+      <c r="C33">
+        <f>C18</f>
+        <v>2.8938999999999999E-2</v>
+      </c>
+      <c r="D33">
+        <f>D18</f>
         <v>8.2419999999999993E-3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="9"/>
+        <f>E18</f>
         <v>6.1221999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34">
+        <f>N8</f>
+        <v>2.8630000000000001E-3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:E34" si="10">O8</f>
+        <v>4.8311E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="10"/>
+        <v>2.1551000000000001E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="10"/>
+        <v>3.1411000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/expresults.xlsx
+++ b/expresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansonthai/Downloads/summer-research-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A269F6-EE21-6B4A-8B9C-AE38DA8A0A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC5308-4AF9-FC4E-8C09-D9AA80AA25ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="4960" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
+    <workbookView xWindow="19600" yWindow="4460" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
   </bookViews>
   <sheets>
     <sheet name="Indexing" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="119">
   <si>
     <t>Main</t>
   </si>
@@ -389,6 +389,12 @@
   <si>
     <t>table sst (small dataset)</t>
   </si>
+  <si>
+    <t>table sst-dc</t>
+  </si>
+  <si>
+    <t>table-sst-dc</t>
+  </si>
 </sst>
 </file>
 
@@ -1562,6 +1568,93 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5439-B147-8D84-16DB8CBF29E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation V2'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1288.8258796236628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393.12193856290344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>476.96497646177846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>561.30897252392583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5439-B147-8D84-16DB8CBF29E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2186,7 +2279,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Query Evaluation V2'!$A$34</c:f>
+              <c:f>'Query Evaluation V2'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2221,7 +2314,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Query Evaluation V2'!$B$30:$E$30</c:f>
+              <c:f>'Query Evaluation V2'!$B$31:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2242,7 +2335,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Query Evaluation V2'!$B$34:$E$34</c:f>
+              <c:f>'Query Evaluation V2'!$B$35:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13001,8 +13094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE00D276-BD42-7F42-AA46-503412D3BF31}">
   <dimension ref="A1:AY83"/>
   <sheetViews>
-    <sheetView topLeftCell="T2" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="AB50" sqref="AB50"/>
+    <sheetView topLeftCell="T1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16550,15 +16643,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E6D4B-CBE1-6040-B05A-6A93103A9872}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -16568,8 +16664,11 @@
       <c r="M1" t="s">
         <v>112</v>
       </c>
+      <c r="S1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>10</v>
       </c>
@@ -16606,8 +16705,20 @@
       <c r="Q2">
         <v>10000</v>
       </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <v>1000</v>
+      </c>
+      <c r="W2">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -16653,8 +16764,23 @@
       <c r="Q3" s="27">
         <v>22.678699999999999</v>
       </c>
+      <c r="S3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="27">
+        <v>7.7590000000000003E-3</v>
+      </c>
+      <c r="U3" s="27">
+        <v>0.25437399999999999</v>
+      </c>
+      <c r="V3" s="27">
+        <v>2.09659</v>
+      </c>
+      <c r="W3" s="27">
+        <v>17.8155</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -16712,8 +16838,27 @@
         <f t="shared" si="2"/>
         <v>2.26787E-3</v>
       </c>
+      <c r="S4" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <f>T3/T2</f>
+        <v>7.7590000000000005E-4</v>
+      </c>
+      <c r="U4">
+        <f>U3/U2</f>
+        <v>2.5437400000000001E-3</v>
+      </c>
+      <c r="V4">
+        <f>V3/V2</f>
+        <v>2.0965899999999997E-3</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="V4:W4" si="3">W3/W2</f>
+        <v>1.78155E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -16726,7 +16871,7 @@
         <v>38.27472834511557</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5" si="3">1/D4</f>
+        <f t="shared" ref="D5" si="4">1/D4</f>
         <v>5.1074609789981205</v>
       </c>
       <c r="E5">
@@ -16741,15 +16886,15 @@
         <v>1402.5245441795232</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:K5" si="4">1/I4</f>
+        <f t="shared" ref="I5:K5" si="5">1/I4</f>
         <v>1439.9470099500338</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2400.0787225821005</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2035.3333876088905</v>
       </c>
       <c r="M5" t="s">
@@ -16760,19 +16905,38 @@
         <v>1290.1561088891756</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:Q5" si="5">1/O4</f>
+        <f t="shared" ref="O5:Q5" si="6">1/O4</f>
         <v>427.9118330459192</v>
       </c>
       <c r="P5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>448.4606587887078</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>440.94238205893635</v>
       </c>
+      <c r="S5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5">
+        <f>1/T4</f>
+        <v>1288.8258796236628</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:W5" si="7">1/U4</f>
+        <v>393.12193856290344</v>
+      </c>
+      <c r="V5">
+        <f>1/V4</f>
+        <v>476.96497646177846</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="7"/>
+        <v>561.30897252392583</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -16800,8 +16964,17 @@
       <c r="O6" s="27">
         <v>6.2000000000000003E-5</v>
       </c>
+      <c r="S6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="27">
+        <v>2.0799999999999999E-4</v>
+      </c>
+      <c r="U6" s="27">
+        <v>9.0000000000000006E-5</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -16847,8 +17020,23 @@
       <c r="Q7" s="27">
         <v>0.51362600000000003</v>
       </c>
+      <c r="S7" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" s="27">
+        <v>2.885E-3</v>
+      </c>
+      <c r="U7" s="27">
+        <v>5.1577999999999999E-2</v>
+      </c>
+      <c r="V7" s="27">
+        <v>0.27768100000000001</v>
+      </c>
+      <c r="W7" s="27">
+        <v>0.50517599999999996</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -16894,8 +17082,23 @@
       <c r="Q8" s="27">
         <v>3.1411000000000001E-2</v>
       </c>
+      <c r="S8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="27">
+        <v>2.885E-3</v>
+      </c>
+      <c r="U8" s="27">
+        <v>5.1577999999999999E-2</v>
+      </c>
+      <c r="V8" s="27">
+        <v>2.0629000000000002E-2</v>
+      </c>
+      <c r="W8" s="27">
+        <v>1.7876E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -16909,7 +17112,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>10</v>
@@ -16929,7 +17132,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>98</v>
       </c>
@@ -16953,7 +17156,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>100</v>
       </c>
@@ -16979,7 +17182,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>99</v>
       </c>
@@ -17005,7 +17208,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>101</v>
       </c>
@@ -17098,15 +17301,15 @@
         <v>1402.5245441795232</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:E24" si="6">I5</f>
+        <f t="shared" ref="C24:E24" si="8">I5</f>
         <v>1439.9470099500338</v>
       </c>
       <c r="D24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2400.0787225821005</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2035.3333876088905</v>
       </c>
     </row>
@@ -17119,15 +17322,15 @@
         <v>296.92092995635261</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:E25" si="7">C5</f>
+        <f t="shared" ref="C25:E25" si="9">C5</f>
         <v>38.27472834511557</v>
       </c>
       <c r="D25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.1074609789981205</v>
       </c>
       <c r="E25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0494684776443468</v>
       </c>
     </row>
@@ -17140,15 +17343,15 @@
         <v>1971.2201852946973</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:E26" si="8">C15</f>
+        <f t="shared" ref="C26:E26" si="10">C15</f>
         <v>672.73473396704946</v>
       </c>
       <c r="D26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1271.5334184413034</v>
       </c>
       <c r="E26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1294.4749221373336</v>
       </c>
     </row>
@@ -17161,122 +17364,164 @@
         <v>1290.1561088891756</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:E27" si="9">O5</f>
+        <f t="shared" ref="C27:E27" si="11">O5</f>
         <v>427.9118330459192</v>
       </c>
       <c r="D27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>448.4606587887078</v>
       </c>
       <c r="E27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>440.94238205893635</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>110</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28">
+        <f>T5</f>
+        <v>1288.8258796236628</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:E28" si="12">U5</f>
+        <v>393.12193856290344</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="12"/>
+        <v>476.96497646177846</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="12"/>
+        <v>561.30897252392583</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="2">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2">
-        <v>100</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E30" s="2">
-        <v>10000</v>
+      <c r="A30" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31">
-        <f>H8</f>
-        <v>7.7800000000000005E-4</v>
-      </c>
-      <c r="C31">
-        <f>I8</f>
-        <v>9.7900000000000005E-4</v>
-      </c>
-      <c r="D31">
-        <f>J8</f>
-        <v>9.1799999999999998E-4</v>
-      </c>
-      <c r="E31">
-        <f>K8</f>
-        <v>9.1799999999999998E-4</v>
+        <v>107</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B32">
-        <f>B8</f>
-        <v>9.9399999999999992E-3</v>
+        <f>H8</f>
+        <v>7.7800000000000005E-4</v>
       </c>
       <c r="C32">
-        <f>C8</f>
-        <v>0.14436399999999999</v>
+        <f>I8</f>
+        <v>9.7900000000000005E-4</v>
       </c>
       <c r="D32">
-        <f>D8</f>
-        <v>0.89703100000000002</v>
+        <f>J8</f>
+        <v>9.1799999999999998E-4</v>
       </c>
       <c r="E32">
-        <f>E8</f>
-        <v>5.8680770000000004</v>
+        <f>K8</f>
+        <v>9.1799999999999998E-4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B33">
-        <f>B18</f>
-        <v>1.9580000000000001E-3</v>
+        <f>B8</f>
+        <v>9.9399999999999992E-3</v>
       </c>
       <c r="C33">
-        <f>C18</f>
-        <v>2.8938999999999999E-2</v>
+        <f>C8</f>
+        <v>0.14436399999999999</v>
       </c>
       <c r="D33">
-        <f>D18</f>
-        <v>8.2419999999999993E-3</v>
+        <f>D8</f>
+        <v>0.89703100000000002</v>
       </c>
       <c r="E33">
-        <f>E18</f>
-        <v>6.1221999999999999E-2</v>
+        <f>E8</f>
+        <v>5.8680770000000004</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34">
+        <f>B18</f>
+        <v>1.9580000000000001E-3</v>
+      </c>
+      <c r="C34">
+        <f>C18</f>
+        <v>2.8938999999999999E-2</v>
+      </c>
+      <c r="D34">
+        <f>D18</f>
+        <v>8.2419999999999993E-3</v>
+      </c>
+      <c r="E34">
+        <f>E18</f>
+        <v>6.1221999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>113</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <f>N8</f>
         <v>2.8630000000000001E-3</v>
       </c>
-      <c r="C34">
-        <f t="shared" ref="C34:E34" si="10">O8</f>
+      <c r="C35">
+        <f>O8</f>
         <v>4.8311E-2</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="10"/>
+      <c r="D35">
+        <f>P8</f>
         <v>2.1551000000000001E-2</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="10"/>
+      <c r="E35">
+        <f>Q8</f>
         <v>3.1411000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36">
+        <f>T8</f>
+        <v>2.885E-3</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:D36" si="13">U8</f>
+        <v>5.1577999999999999E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="13"/>
+        <v>2.0629000000000002E-2</v>
+      </c>
+      <c r="E36">
+        <f>W8</f>
+        <v>1.7876E-2</v>
       </c>
     </row>
   </sheetData>

--- a/expresults.xlsx
+++ b/expresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansonthai/Downloads/summer-research-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC5308-4AF9-FC4E-8C09-D9AA80AA25ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1BF305-D918-8248-91B1-F6702DDD6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="4460" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
+    <workbookView xWindow="17600" yWindow="5980" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
   </bookViews>
   <sheets>
     <sheet name="Indexing" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,16 +632,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,7 +1236,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Query Evaluation'!$A$25</c:f>
+              <c:f>'Query Evaluation V2'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1271,7 +1271,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$24:$E$24</c:f>
+              <c:f>'Query Evaluation V2'!$B$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1292,7 +1292,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$25:$E$25</c:f>
+              <c:f>'Query Evaluation V2'!$B$24:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1314,7 +1314,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5439-B147-8D84-16DB8CBF29E9}"/>
+              <c16:uniqueId val="{00000000-484E-C84E-9434-2222F57A6AF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1323,7 +1323,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Query Evaluation'!$A$26</c:f>
+              <c:f>'Query Evaluation V2'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1358,7 +1358,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$24:$E$24</c:f>
+              <c:f>'Query Evaluation V2'!$B$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1379,7 +1379,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$26:$E$26</c:f>
+              <c:f>'Query Evaluation V2'!$B$25:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1401,7 +1401,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5439-B147-8D84-16DB8CBF29E9}"/>
+              <c16:uniqueId val="{00000001-484E-C84E-9434-2222F57A6AF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1410,7 +1410,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Query Evaluation'!$A$27</c:f>
+              <c:f>'Query Evaluation V2'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1445,7 +1445,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$24:$E$24</c:f>
+              <c:f>'Query Evaluation V2'!$B$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1466,7 +1466,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$27:$E$27</c:f>
+              <c:f>'Query Evaluation V2'!$B$26:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1488,7 +1488,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5439-B147-8D84-16DB8CBF29E9}"/>
+              <c16:uniqueId val="{00000002-484E-C84E-9434-2222F57A6AF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1496,7 +1496,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>table-sst</c:v>
+            <c:strRef>
+              <c:f>'Query Evaluation V2'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1567,7 +1575,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5439-B147-8D84-16DB8CBF29E9}"/>
+              <c16:uniqueId val="{00000003-484E-C84E-9434-2222F57A6AF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1637,16 +1645,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1288.8258796236628</c:v>
+                  <c:v>2483.8549428713363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393.12193856290344</c:v>
+                  <c:v>901.85963456647607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>476.96497646177846</c:v>
+                  <c:v>758.48363950789587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>561.30897252392583</c:v>
+                  <c:v>641.543811026855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,7 +1662,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5439-B147-8D84-16DB8CBF29E9}"/>
+              <c16:uniqueId val="{00000005-484E-C84E-9434-2222F57A6AF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1666,11 +1674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70292447"/>
-        <c:axId val="124767887"/>
+        <c:axId val="1615604336"/>
+        <c:axId val="1615284304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70292447"/>
+        <c:axId val="1615604336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1699,7 +1707,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1713,11 +1721,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1500"/>
-                  <a:t>No. of</a:t>
+                  <a:t>Number</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1500" baseline="0"/>
-                  <a:t> Requests</a:t>
+                  <a:t> of Requests</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1500"/>
               </a:p>
@@ -1736,7 +1744,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1752,7 +1760,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1789,12 +1797,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124767887"/>
+        <c:crossAx val="1615284304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124767887"/>
+        <c:axId val="1615284304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70292447"/>
+        <c:crossAx val="1615604336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2018,7 +2026,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Query Evaluation'!$A$31</c:f>
+              <c:f>'Query Evaluation V2'!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2053,7 +2061,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$30:$E$30</c:f>
+              <c:f>'Query Evaluation V2'!$B$31:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2074,7 +2082,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$31:$E$31</c:f>
+              <c:f>'Query Evaluation V2'!$B$32:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2096,7 +2104,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-37D7-0548-889D-8F6CD5AE1EB9}"/>
+              <c16:uniqueId val="{00000000-3338-F04B-8E23-C05DF3260C71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2105,7 +2113,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Query Evaluation'!$A$32</c:f>
+              <c:f>'Query Evaluation V2'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2140,7 +2148,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$30:$E$30</c:f>
+              <c:f>'Query Evaluation V2'!$B$31:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2161,7 +2169,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$32:$E$32</c:f>
+              <c:f>'Query Evaluation V2'!$B$33:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2183,7 +2191,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-37D7-0548-889D-8F6CD5AE1EB9}"/>
+              <c16:uniqueId val="{00000001-3338-F04B-8E23-C05DF3260C71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2192,7 +2200,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Query Evaluation'!$A$33</c:f>
+              <c:f>'Query Evaluation V2'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2227,7 +2235,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$30:$E$30</c:f>
+              <c:f>'Query Evaluation V2'!$B$31:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2248,7 +2256,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Query Evaluation'!$B$33:$E$33</c:f>
+              <c:f>'Query Evaluation V2'!$B$34:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2270,7 +2278,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-37D7-0548-889D-8F6CD5AE1EB9}"/>
+              <c16:uniqueId val="{00000002-3338-F04B-8E23-C05DF3260C71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2357,7 +2365,94 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-37D7-0548-889D-8F6CD5AE1EB9}"/>
+              <c16:uniqueId val="{00000003-3338-F04B-8E23-C05DF3260C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation V2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.8199999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3077999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4074E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5886999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3338-F04B-8E23-C05DF3260C71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2369,15 +2464,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94354191"/>
-        <c:axId val="149692879"/>
+        <c:axId val="1693629456"/>
+        <c:axId val="1694176240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94354191"/>
+        <c:axId val="1693629456"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2402,7 +2495,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2416,11 +2509,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1500"/>
-                  <a:t>No.</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1500" baseline="0"/>
-                  <a:t> of Requests</a:t>
+                  <a:t>Number of Requests</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2438,7 +2527,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2491,12 +2580,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149692879"/>
+        <c:crossAx val="1694176240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149692879"/>
+        <c:axId val="1694176240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2612,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2536,10 +2625,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1500" baseline="0"/>
-                  <a:t>Tail Latency (s)</a:t>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>Tail Latency</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1500"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2556,7 +2644,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2609,7 +2697,705 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94354191"/>
+        <c:crossAx val="1693629456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation V2'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$32:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.7800000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7900000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1799999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2B8-CB49-AA2D-9D7BDD944ED3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation V2'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9580000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8938999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2419999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1221999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A2B8-CB49-AA2D-9D7BDD944ED3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation V2'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.8630000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8311E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1551000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1411000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A2B8-CB49-AA2D-9D7BDD944ED3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Query Evaluation V2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query Evaluation V2'!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.8199999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3077999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4074E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5886999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A2B8-CB49-AA2D-9D7BDD944ED3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1689593824"/>
+        <c:axId val="1689595472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1689593824"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>NUmber of Requests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1689595472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1689595472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>Tail Latency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1689593824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6965,6 +7751,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7789,6 +8615,522 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12718,29 +14060,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2A5453-F931-0146-B0DA-47DA9131BE85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18F6D09-C91A-6747-B72B-96153E6156DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12756,29 +14096,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4517DAB-4A38-B842-A40B-546286D059E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F6B08F-0D60-874B-9F41-33055C178247}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12787,6 +14125,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5BE6ED-2290-1A4A-9DED-0F0DDA721BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13197,10 +14571,10 @@
       <c r="N4">
         <v>640541</v>
       </c>
-      <c r="Y4" s="28" t="s">
+      <c r="Y4" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="29" t="s">
+      <c r="Z4" s="33" t="s">
         <v>53</v>
       </c>
       <c r="AA4" s="10">
@@ -13272,8 +14646,8 @@
         <f>Q5*10</f>
         <v>0.23202608</v>
       </c>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="30"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="34"/>
       <c r="AA5" s="10">
         <v>2</v>
       </c>
@@ -13343,8 +14717,8 @@
         <f t="shared" ref="W6:W8" si="4">Q6*10</f>
         <v>44.84491688</v>
       </c>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="30"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="34"/>
       <c r="AA6" s="10">
         <v>3</v>
       </c>
@@ -13414,8 +14788,8 @@
         <f t="shared" si="4"/>
         <v>16.345038880000001</v>
       </c>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="30"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="34"/>
       <c r="AA7" s="10">
         <v>4</v>
       </c>
@@ -13487,8 +14861,8 @@
         <f t="shared" si="4"/>
         <v>0.15918689999999999</v>
       </c>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="31"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="35"/>
       <c r="AA8" s="10" t="s">
         <v>48</v>
       </c>
@@ -13529,8 +14903,8 @@
       <c r="H9">
         <v>2.8</v>
       </c>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="32" t="s">
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="30" t="s">
         <v>54</v>
       </c>
       <c r="AA9" s="13">
@@ -13549,8 +14923,8 @@
       <c r="AG9" s="3"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="33"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="31"/>
       <c r="AA10" s="13">
         <v>2</v>
       </c>
@@ -13570,8 +14944,8 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="33"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="31"/>
       <c r="AA11" s="13">
         <v>3</v>
       </c>
@@ -13603,8 +14977,8 @@
       <c r="H12" t="s">
         <v>1</v>
       </c>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="33"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="31"/>
       <c r="AA12" s="13">
         <v>4</v>
       </c>
@@ -13641,8 +15015,8 @@
       <c r="H13">
         <v>16.75</v>
       </c>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="34"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="32"/>
       <c r="AA13" s="13" t="s">
         <v>48</v>
       </c>
@@ -13668,10 +15042,10 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="Y14" s="28" t="s">
+      <c r="Y14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="29" t="s">
+      <c r="Z14" s="33" t="s">
         <v>53</v>
       </c>
       <c r="AA14" s="10">
@@ -13698,8 +15072,8 @@
       <c r="M15" t="s">
         <v>56</v>
       </c>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="30"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="34"/>
       <c r="AA15" s="10">
         <v>2</v>
       </c>
@@ -13721,8 +15095,8 @@
       <c r="M16" t="s">
         <v>55</v>
       </c>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="30"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="34"/>
       <c r="AA16" s="10">
         <v>3</v>
       </c>
@@ -13744,8 +15118,8 @@
       <c r="M17" t="s">
         <v>26</v>
       </c>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="30"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="34"/>
       <c r="AA17" s="10">
         <v>4</v>
       </c>
@@ -13777,8 +15151,8 @@
       <c r="Q18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="31"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="35"/>
       <c r="AA18" s="10" t="s">
         <v>48</v>
       </c>
@@ -13817,8 +15191,8 @@
       <c r="Q19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="32" t="s">
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="30" t="s">
         <v>54</v>
       </c>
       <c r="AA19" s="13">
@@ -13855,8 +15229,8 @@
       <c r="Q20" s="3">
         <v>1</v>
       </c>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="33"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="31"/>
       <c r="AA20" s="13">
         <v>2</v>
       </c>
@@ -13891,8 +15265,8 @@
       <c r="Q21" s="3">
         <v>25</v>
       </c>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="33"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="31"/>
       <c r="AA21" s="13">
         <v>3</v>
       </c>
@@ -13927,8 +15301,8 @@
       <c r="Q22" s="3">
         <v>15</v>
       </c>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="33"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="31"/>
       <c r="AA22" s="13">
         <v>4</v>
       </c>
@@ -13963,8 +15337,8 @@
       <c r="Q23" s="3">
         <v>1</v>
       </c>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="34"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="32"/>
       <c r="AA23" s="13" t="s">
         <v>48</v>
       </c>
@@ -13993,10 +15367,10 @@
       <c r="U24" t="s">
         <v>41</v>
       </c>
-      <c r="Y24" s="28" t="s">
+      <c r="Y24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="29" t="s">
+      <c r="Z24" s="33" t="s">
         <v>53</v>
       </c>
       <c r="AA24" s="10">
@@ -14023,8 +15397,8 @@
       <c r="U25" t="s">
         <v>46</v>
       </c>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="30"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="34"/>
       <c r="AA25" s="10">
         <v>2</v>
       </c>
@@ -14062,8 +15436,8 @@
       <c r="W26" t="s">
         <v>51</v>
       </c>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="30"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="34"/>
       <c r="AA26" s="10">
         <v>3</v>
       </c>
@@ -14098,8 +15472,8 @@
       <c r="U27" t="s">
         <v>43</v>
       </c>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="30"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="34"/>
       <c r="AA27" s="10">
         <v>4</v>
       </c>
@@ -14141,8 +15515,8 @@
       <c r="U28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="31"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="35"/>
       <c r="AA28" s="10" t="s">
         <v>48</v>
       </c>
@@ -14184,8 +15558,8 @@
       <c r="Q29" s="3">
         <v>5</v>
       </c>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="32" t="s">
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="30" t="s">
         <v>54</v>
       </c>
       <c r="AA29" s="13">
@@ -14222,8 +15596,8 @@
       <c r="Q30" s="3">
         <v>2</v>
       </c>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="33"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="31"/>
       <c r="AA30" s="13">
         <v>2</v>
       </c>
@@ -14258,8 +15632,8 @@
       <c r="Q31" s="3">
         <v>1</v>
       </c>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="33"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="31"/>
       <c r="AA31" s="13">
         <v>3</v>
       </c>
@@ -14278,8 +15652,8 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="33"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="31"/>
       <c r="AA32" s="13">
         <v>4</v>
       </c>
@@ -14304,8 +15678,8 @@
       <c r="T33">
         <v>770839982</v>
       </c>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="34"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="32"/>
       <c r="AA33" s="13" t="s">
         <v>48</v>
       </c>
@@ -14340,10 +15714,10 @@
       <c r="T34" s="2">
         <v>26843545600</v>
       </c>
-      <c r="Y34" s="28" t="s">
+      <c r="Y34" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="Z34" s="29" t="s">
+      <c r="Z34" s="33" t="s">
         <v>53</v>
       </c>
       <c r="AA34" s="10">
@@ -14377,8 +15751,8 @@
       <c r="W35" t="s">
         <v>51</v>
       </c>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="30"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="34"/>
       <c r="AA35" s="10">
         <v>2</v>
       </c>
@@ -14406,8 +15780,8 @@
       <c r="T36" s="21">
         <v>21474836480</v>
       </c>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="30"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="34"/>
       <c r="AA36" s="10">
         <v>3</v>
       </c>
@@ -14447,8 +15821,8 @@
         <f>T34/T36</f>
         <v>1.25</v>
       </c>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="30"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="34"/>
       <c r="AA37" s="10">
         <v>4</v>
       </c>
@@ -14484,8 +15858,8 @@
         <f>Q38/(10^9)</f>
         <v>0.44970119600000003</v>
       </c>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="31"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="35"/>
       <c r="AA38" s="10" t="s">
         <v>48</v>
       </c>
@@ -14517,8 +15891,8 @@
       <c r="N39">
         <v>196.46</v>
       </c>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="32" t="s">
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="30" t="s">
         <v>54</v>
       </c>
       <c r="AA39" s="13">
@@ -14550,8 +15924,8 @@
         <f>Q40/10^9</f>
         <v>4.9207099999999997E-2</v>
       </c>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="33"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="31"/>
       <c r="AA40" s="13">
         <v>2</v>
       </c>
@@ -14581,8 +15955,8 @@
         <f>Q41/10^9</f>
         <v>0.38889000000000001</v>
       </c>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="33"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="31"/>
       <c r="AA41" s="13">
         <v>3</v>
       </c>
@@ -14602,8 +15976,8 @@
     </row>
     <row r="42" spans="13:33" x14ac:dyDescent="0.2">
       <c r="R42" s="5"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="33"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="31"/>
       <c r="AA42" s="13">
         <v>4</v>
       </c>
@@ -14623,8 +15997,8 @@
     </row>
     <row r="43" spans="13:33" x14ac:dyDescent="0.2">
       <c r="R43" s="5"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="34"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="32"/>
       <c r="AA43" s="13" t="s">
         <v>48</v>
       </c>
@@ -14656,10 +16030,10 @@
       <c r="N44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y44" s="28" t="s">
+      <c r="Y44" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="Z44" s="29" t="s">
+      <c r="Z44" s="33" t="s">
         <v>53</v>
       </c>
       <c r="AA44" s="10">
@@ -14679,8 +16053,8 @@
         <v>15.93</v>
       </c>
       <c r="R45" s="5"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="30"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="34"/>
       <c r="AA45" s="10">
         <v>2</v>
       </c>
@@ -14697,8 +16071,8 @@
       <c r="N46" s="3">
         <v>51.41</v>
       </c>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="30"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="34"/>
       <c r="AA46" s="10">
         <v>3</v>
       </c>
@@ -14715,8 +16089,8 @@
       <c r="N47" s="3">
         <v>197.34</v>
       </c>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="30"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="34"/>
       <c r="AA47" s="10">
         <v>4</v>
       </c>
@@ -14733,8 +16107,8 @@
       <c r="N48" s="7">
         <v>188.89</v>
       </c>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="31"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="35"/>
       <c r="AA48" s="10" t="s">
         <v>48</v>
       </c>
@@ -14760,8 +16134,8 @@
       </c>
     </row>
     <row r="49" spans="25:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="32" t="s">
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="30" t="s">
         <v>54</v>
       </c>
       <c r="AA49" s="13">
@@ -14779,7 +16153,7 @@
       <c r="AE49" s="27">
         <v>11.23</v>
       </c>
-      <c r="AF49" s="35">
+      <c r="AF49" s="28">
         <v>62.33</v>
       </c>
       <c r="AG49" s="3">
@@ -14788,8 +16162,8 @@
       </c>
     </row>
     <row r="50" spans="25:51" x14ac:dyDescent="0.2">
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="33"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="31"/>
       <c r="AA50" s="13">
         <v>2</v>
       </c>
@@ -14800,8 +16174,8 @@
       <c r="AG50" s="3"/>
     </row>
     <row r="51" spans="25:51" x14ac:dyDescent="0.2">
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="33"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="31"/>
       <c r="AA51" s="13">
         <v>3</v>
       </c>
@@ -14812,8 +16186,8 @@
       <c r="AG51" s="3"/>
     </row>
     <row r="52" spans="25:51" x14ac:dyDescent="0.2">
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="33"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="31"/>
       <c r="AA52" s="13">
         <v>4</v>
       </c>
@@ -14824,8 +16198,8 @@
       <c r="AG52" s="3"/>
     </row>
     <row r="53" spans="25:51" x14ac:dyDescent="0.2">
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="34"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="32"/>
       <c r="AA53" s="13" t="s">
         <v>48</v>
       </c>
@@ -15420,12 +16794,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Y4:Y13"/>
-    <mergeCell ref="Z9:Z13"/>
-    <mergeCell ref="Z4:Z8"/>
-    <mergeCell ref="Y14:Y23"/>
-    <mergeCell ref="Z14:Z18"/>
-    <mergeCell ref="Z19:Z23"/>
     <mergeCell ref="Y44:Y53"/>
     <mergeCell ref="Z44:Z48"/>
     <mergeCell ref="Z49:Z53"/>
@@ -15435,6 +16803,12 @@
     <mergeCell ref="Y34:Y43"/>
     <mergeCell ref="Z34:Z38"/>
     <mergeCell ref="Z39:Z43"/>
+    <mergeCell ref="Y4:Y13"/>
+    <mergeCell ref="Z9:Z13"/>
+    <mergeCell ref="Z4:Z8"/>
+    <mergeCell ref="Y14:Y23"/>
+    <mergeCell ref="Z14:Z18"/>
+    <mergeCell ref="Z19:Z23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -16645,8 +18019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E6D4B-CBE1-6040-B05A-6A93103A9872}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16768,16 +18142,16 @@
         <v>98</v>
       </c>
       <c r="T3" s="27">
-        <v>7.7590000000000003E-3</v>
+        <v>4.0260000000000001E-3</v>
       </c>
       <c r="U3" s="27">
-        <v>0.25437399999999999</v>
+        <v>0.11088199999999999</v>
       </c>
       <c r="V3" s="27">
-        <v>2.09659</v>
+        <v>1.3184199999999999</v>
       </c>
       <c r="W3" s="27">
-        <v>17.8155</v>
+        <v>15.587400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -16843,19 +18217,19 @@
       </c>
       <c r="T4">
         <f>T3/T2</f>
-        <v>7.7590000000000005E-4</v>
+        <v>4.0260000000000003E-4</v>
       </c>
       <c r="U4">
         <f>U3/U2</f>
-        <v>2.5437400000000001E-3</v>
+        <v>1.1088199999999999E-3</v>
       </c>
       <c r="V4">
         <f>V3/V2</f>
-        <v>2.0965899999999997E-3</v>
+        <v>1.3184199999999998E-3</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="V4:W4" si="3">W3/W2</f>
-        <v>1.78155E-3</v>
+        <f t="shared" ref="W4" si="3">W3/W2</f>
+        <v>1.5587400000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -16921,19 +18295,19 @@
       </c>
       <c r="T5">
         <f>1/T4</f>
-        <v>1288.8258796236628</v>
+        <v>2483.8549428713363</v>
       </c>
       <c r="U5">
         <f t="shared" ref="U5:W5" si="7">1/U4</f>
-        <v>393.12193856290344</v>
+        <v>901.85963456647607</v>
       </c>
       <c r="V5">
         <f>1/V4</f>
-        <v>476.96497646177846</v>
+        <v>758.48363950789587</v>
       </c>
       <c r="W5">
         <f t="shared" si="7"/>
-        <v>561.30897252392583</v>
+        <v>641.543811026855</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.2">
@@ -16968,10 +18342,10 @@
         <v>101</v>
       </c>
       <c r="T6" s="27">
-        <v>2.0799999999999999E-4</v>
+        <v>2.0599999999999999E-4</v>
       </c>
       <c r="U6" s="27">
-        <v>9.0000000000000006E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.2">
@@ -17024,16 +18398,16 @@
         <v>102</v>
       </c>
       <c r="T7" s="27">
-        <v>2.885E-3</v>
+        <v>8.8199999999999997E-4</v>
       </c>
       <c r="U7" s="27">
-        <v>5.1577999999999999E-2</v>
+        <v>1.3077999999999999E-2</v>
       </c>
       <c r="V7" s="27">
-        <v>0.27768100000000001</v>
+        <v>6.2973000000000001E-2</v>
       </c>
       <c r="W7" s="27">
-        <v>0.50517599999999996</v>
+        <v>0.41688399999999998</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.2">
@@ -17086,16 +18460,16 @@
         <v>103</v>
       </c>
       <c r="T8" s="27">
-        <v>2.885E-3</v>
+        <v>8.8199999999999997E-4</v>
       </c>
       <c r="U8" s="27">
-        <v>5.1577999999999999E-2</v>
+        <v>1.3077999999999999E-2</v>
       </c>
       <c r="V8" s="27">
-        <v>2.0629000000000002E-2</v>
+        <v>1.4074E-2</v>
       </c>
       <c r="W8" s="27">
-        <v>1.7876E-2</v>
+        <v>1.5886999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -17382,19 +18756,19 @@
       </c>
       <c r="B28">
         <f>T5</f>
-        <v>1288.8258796236628</v>
+        <v>2483.8549428713363</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:E28" si="12">U5</f>
-        <v>393.12193856290344</v>
+        <v>901.85963456647607</v>
       </c>
       <c r="D28">
         <f t="shared" si="12"/>
-        <v>476.96497646177846</v>
+        <v>758.48363950789587</v>
       </c>
       <c r="E28">
         <f t="shared" si="12"/>
-        <v>561.30897252392583</v>
+        <v>641.543811026855</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -17509,19 +18883,19 @@
       </c>
       <c r="B36">
         <f>T8</f>
-        <v>2.885E-3</v>
+        <v>8.8199999999999997E-4</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:D36" si="13">U8</f>
-        <v>5.1577999999999999E-2</v>
+        <v>1.3077999999999999E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="13"/>
-        <v>2.0629000000000002E-2</v>
+        <v>1.4074E-2</v>
       </c>
       <c r="E36">
         <f>W8</f>
-        <v>1.7876E-2</v>
+        <v>1.5886999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/expresults.xlsx
+++ b/expresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansonthai/Downloads/summer-research-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1BF305-D918-8248-91B1-F6702DDD6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D27BBB-5CC1-4045-B29B-D216A114ECF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17600" yWindow="5980" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
   </bookViews>
@@ -3207,7 +3207,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1500"/>
-                  <a:t>NUmber of Requests</a:t>
+                  <a:t>Number of Requests</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -18019,8 +18019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E6D4B-CBE1-6040-B05A-6A93103A9872}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/expresults.xlsx
+++ b/expresults.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansonthai/Downloads/summer-research-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D27BBB-5CC1-4045-B29B-D216A114ECF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E33D0F-666F-A14F-939D-0D3B89871093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17600" yWindow="5980" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
+    <workbookView xWindow="14120" yWindow="6720" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
   </bookViews>
   <sheets>
     <sheet name="Indexing" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Query Evaluation" sheetId="3" r:id="rId3"/>
     <sheet name="Query Evaluation V2" sheetId="4" r:id="rId4"/>
+    <sheet name="QE core" sheetId="5" r:id="rId5"/>
+    <sheet name="QE core graphs" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="130">
   <si>
     <t>Main</t>
   </si>
@@ -395,6 +397,39 @@
   <si>
     <t>table-sst-dc</t>
   </si>
+  <si>
+    <t>Core Count</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>qe-table-pm</t>
+  </si>
+  <si>
+    <t>qe-stock</t>
+  </si>
+  <si>
+    <t>qe-table-sst</t>
+  </si>
+  <si>
+    <t>qe-table-pm-dc</t>
+  </si>
+  <si>
+    <t>qe-table-dc</t>
+  </si>
+  <si>
+    <t>qe-cmap-pm</t>
+  </si>
+  <si>
+    <t>qe-cmap-pm-dc</t>
+  </si>
+  <si>
+    <t>qe-table-sst-dc</t>
+  </si>
+  <si>
+    <t>Tail Latency</t>
+  </si>
 </sst>
 </file>
 
@@ -614,6 +649,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,15 +665,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3149,6 +3184,2277 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A2B8-CB49-AA2D-9D7BDD944ED3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1689593824"/>
+        <c:axId val="1689595472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1689593824"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>Number of Requests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1689595472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1689595472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>Tail Latency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1689593824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>475.80530047104719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216.13163280964636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1354.6776341367927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2943.8605787629895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F50A-6A46-8D3C-4F503AFBAC89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43.145105619218555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.382248927507593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.857586189945339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.959878600383149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F50A-6A46-8D3C-4F503AFBAC89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>161.17074428649713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.089130658370985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.925756630793661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.357984425504757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F50A-6A46-8D3C-4F503AFBAC89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>692.47282044179769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.676156041220338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.22991893883568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.468384146574593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F50A-6A46-8D3C-4F503AFBAC89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>695.60378408458541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.456165060086704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.91485986927101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.724940480729316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F50A-6A46-8D3C-4F503AFBAC89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1615604336"/>
+        <c:axId val="1615284304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1615604336"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" baseline="0"/>
+                  <a:t> of Requests</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1500"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615284304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1615284304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>QPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615604336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$32:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9359999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3237000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5202E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1770000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27FD-3740-9C09-926D9114B699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5147999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40930699999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80165600000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77984100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27FD-3740-9C09-926D9114B699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0156E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32120399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75195100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58829200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27FD-3740-9C09-926D9114B699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1229999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4653000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9028000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.230961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-27FD-3740-9C09-926D9114B699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9160000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7365999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.127165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13067699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-27FD-3740-9C09-926D9114B699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1693629456"/>
+        <c:axId val="1694176240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1693629456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>Number of Requests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694176240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1694176240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500"/>
+                  <a:t>Tail Latency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1693629456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$32:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9359999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3237000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5202E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1770000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAB0-CF4F-8C6D-6C81FE7F8436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0156E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32120399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75195100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58829200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DAB0-CF4F-8C6D-6C81FE7F8436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1229999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4653000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9028000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.230961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DAB0-CF4F-8C6D-6C81FE7F8436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QE core graphs'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'QE core graphs'!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9160000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7365999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.127165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13067699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DAB0-CF4F-8C6D-6C81FE7F8436}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7791,6 +10097,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9131,6 +11557,1554 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14169,6 +18143,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40125F12-0515-904D-9815-F699F57C28F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66691C43-060C-304F-961F-5E5A3926E817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC42AACC-7808-5641-BD56-2C3AA95A6BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14574,7 +18667,7 @@
       <c r="Y4" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="30" t="s">
         <v>53</v>
       </c>
       <c r="AA4" s="10">
@@ -14647,7 +18740,7 @@
         <v>0.23202608</v>
       </c>
       <c r="Y5" s="29"/>
-      <c r="Z5" s="34"/>
+      <c r="Z5" s="31"/>
       <c r="AA5" s="10">
         <v>2</v>
       </c>
@@ -14718,7 +18811,7 @@
         <v>44.84491688</v>
       </c>
       <c r="Y6" s="29"/>
-      <c r="Z6" s="34"/>
+      <c r="Z6" s="31"/>
       <c r="AA6" s="10">
         <v>3</v>
       </c>
@@ -14789,7 +18882,7 @@
         <v>16.345038880000001</v>
       </c>
       <c r="Y7" s="29"/>
-      <c r="Z7" s="34"/>
+      <c r="Z7" s="31"/>
       <c r="AA7" s="10">
         <v>4</v>
       </c>
@@ -14862,7 +18955,7 @@
         <v>0.15918689999999999</v>
       </c>
       <c r="Y8" s="29"/>
-      <c r="Z8" s="35"/>
+      <c r="Z8" s="32"/>
       <c r="AA8" s="10" t="s">
         <v>48</v>
       </c>
@@ -14904,7 +18997,7 @@
         <v>2.8</v>
       </c>
       <c r="Y9" s="29"/>
-      <c r="Z9" s="30" t="s">
+      <c r="Z9" s="33" t="s">
         <v>54</v>
       </c>
       <c r="AA9" s="13">
@@ -14924,7 +19017,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="Y10" s="29"/>
-      <c r="Z10" s="31"/>
+      <c r="Z10" s="34"/>
       <c r="AA10" s="13">
         <v>2</v>
       </c>
@@ -14945,7 +19038,7 @@
         <v>9</v>
       </c>
       <c r="Y11" s="29"/>
-      <c r="Z11" s="31"/>
+      <c r="Z11" s="34"/>
       <c r="AA11" s="13">
         <v>3</v>
       </c>
@@ -14978,7 +19071,7 @@
         <v>1</v>
       </c>
       <c r="Y12" s="29"/>
-      <c r="Z12" s="31"/>
+      <c r="Z12" s="34"/>
       <c r="AA12" s="13">
         <v>4</v>
       </c>
@@ -15016,7 +19109,7 @@
         <v>16.75</v>
       </c>
       <c r="Y13" s="29"/>
-      <c r="Z13" s="32"/>
+      <c r="Z13" s="35"/>
       <c r="AA13" s="13" t="s">
         <v>48</v>
       </c>
@@ -15045,7 +19138,7 @@
       <c r="Y14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="33" t="s">
+      <c r="Z14" s="30" t="s">
         <v>53</v>
       </c>
       <c r="AA14" s="10">
@@ -15073,7 +19166,7 @@
         <v>56</v>
       </c>
       <c r="Y15" s="29"/>
-      <c r="Z15" s="34"/>
+      <c r="Z15" s="31"/>
       <c r="AA15" s="10">
         <v>2</v>
       </c>
@@ -15096,7 +19189,7 @@
         <v>55</v>
       </c>
       <c r="Y16" s="29"/>
-      <c r="Z16" s="34"/>
+      <c r="Z16" s="31"/>
       <c r="AA16" s="10">
         <v>3</v>
       </c>
@@ -15119,7 +19212,7 @@
         <v>26</v>
       </c>
       <c r="Y17" s="29"/>
-      <c r="Z17" s="34"/>
+      <c r="Z17" s="31"/>
       <c r="AA17" s="10">
         <v>4</v>
       </c>
@@ -15152,7 +19245,7 @@
         <v>36</v>
       </c>
       <c r="Y18" s="29"/>
-      <c r="Z18" s="35"/>
+      <c r="Z18" s="32"/>
       <c r="AA18" s="10" t="s">
         <v>48</v>
       </c>
@@ -15192,7 +19285,7 @@
         <v>38</v>
       </c>
       <c r="Y19" s="29"/>
-      <c r="Z19" s="30" t="s">
+      <c r="Z19" s="33" t="s">
         <v>54</v>
       </c>
       <c r="AA19" s="13">
@@ -15230,7 +19323,7 @@
         <v>1</v>
       </c>
       <c r="Y20" s="29"/>
-      <c r="Z20" s="31"/>
+      <c r="Z20" s="34"/>
       <c r="AA20" s="13">
         <v>2</v>
       </c>
@@ -15266,7 +19359,7 @@
         <v>25</v>
       </c>
       <c r="Y21" s="29"/>
-      <c r="Z21" s="31"/>
+      <c r="Z21" s="34"/>
       <c r="AA21" s="13">
         <v>3</v>
       </c>
@@ -15302,7 +19395,7 @@
         <v>15</v>
       </c>
       <c r="Y22" s="29"/>
-      <c r="Z22" s="31"/>
+      <c r="Z22" s="34"/>
       <c r="AA22" s="13">
         <v>4</v>
       </c>
@@ -15338,7 +19431,7 @@
         <v>1</v>
       </c>
       <c r="Y23" s="29"/>
-      <c r="Z23" s="32"/>
+      <c r="Z23" s="35"/>
       <c r="AA23" s="13" t="s">
         <v>48</v>
       </c>
@@ -15370,7 +19463,7 @@
       <c r="Y24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="33" t="s">
+      <c r="Z24" s="30" t="s">
         <v>53</v>
       </c>
       <c r="AA24" s="10">
@@ -15398,7 +19491,7 @@
         <v>46</v>
       </c>
       <c r="Y25" s="29"/>
-      <c r="Z25" s="34"/>
+      <c r="Z25" s="31"/>
       <c r="AA25" s="10">
         <v>2</v>
       </c>
@@ -15437,7 +19530,7 @@
         <v>51</v>
       </c>
       <c r="Y26" s="29"/>
-      <c r="Z26" s="34"/>
+      <c r="Z26" s="31"/>
       <c r="AA26" s="10">
         <v>3</v>
       </c>
@@ -15473,7 +19566,7 @@
         <v>43</v>
       </c>
       <c r="Y27" s="29"/>
-      <c r="Z27" s="34"/>
+      <c r="Z27" s="31"/>
       <c r="AA27" s="10">
         <v>4</v>
       </c>
@@ -15516,7 +19609,7 @@
         <v>44</v>
       </c>
       <c r="Y28" s="29"/>
-      <c r="Z28" s="35"/>
+      <c r="Z28" s="32"/>
       <c r="AA28" s="10" t="s">
         <v>48</v>
       </c>
@@ -15559,7 +19652,7 @@
         <v>5</v>
       </c>
       <c r="Y29" s="29"/>
-      <c r="Z29" s="30" t="s">
+      <c r="Z29" s="33" t="s">
         <v>54</v>
       </c>
       <c r="AA29" s="13">
@@ -15597,7 +19690,7 @@
         <v>2</v>
       </c>
       <c r="Y30" s="29"/>
-      <c r="Z30" s="31"/>
+      <c r="Z30" s="34"/>
       <c r="AA30" s="13">
         <v>2</v>
       </c>
@@ -15633,7 +19726,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="29"/>
-      <c r="Z31" s="31"/>
+      <c r="Z31" s="34"/>
       <c r="AA31" s="13">
         <v>3</v>
       </c>
@@ -15653,7 +19746,7 @@
     </row>
     <row r="32" spans="13:33" x14ac:dyDescent="0.2">
       <c r="Y32" s="29"/>
-      <c r="Z32" s="31"/>
+      <c r="Z32" s="34"/>
       <c r="AA32" s="13">
         <v>4</v>
       </c>
@@ -15679,7 +19772,7 @@
         <v>770839982</v>
       </c>
       <c r="Y33" s="29"/>
-      <c r="Z33" s="32"/>
+      <c r="Z33" s="35"/>
       <c r="AA33" s="13" t="s">
         <v>48</v>
       </c>
@@ -15717,7 +19810,7 @@
       <c r="Y34" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="Z34" s="33" t="s">
+      <c r="Z34" s="30" t="s">
         <v>53</v>
       </c>
       <c r="AA34" s="10">
@@ -15752,7 +19845,7 @@
         <v>51</v>
       </c>
       <c r="Y35" s="29"/>
-      <c r="Z35" s="34"/>
+      <c r="Z35" s="31"/>
       <c r="AA35" s="10">
         <v>2</v>
       </c>
@@ -15781,7 +19874,7 @@
         <v>21474836480</v>
       </c>
       <c r="Y36" s="29"/>
-      <c r="Z36" s="34"/>
+      <c r="Z36" s="31"/>
       <c r="AA36" s="10">
         <v>3</v>
       </c>
@@ -15822,7 +19915,7 @@
         <v>1.25</v>
       </c>
       <c r="Y37" s="29"/>
-      <c r="Z37" s="34"/>
+      <c r="Z37" s="31"/>
       <c r="AA37" s="10">
         <v>4</v>
       </c>
@@ -15859,7 +19952,7 @@
         <v>0.44970119600000003</v>
       </c>
       <c r="Y38" s="29"/>
-      <c r="Z38" s="35"/>
+      <c r="Z38" s="32"/>
       <c r="AA38" s="10" t="s">
         <v>48</v>
       </c>
@@ -15892,7 +19985,7 @@
         <v>196.46</v>
       </c>
       <c r="Y39" s="29"/>
-      <c r="Z39" s="30" t="s">
+      <c r="Z39" s="33" t="s">
         <v>54</v>
       </c>
       <c r="AA39" s="13">
@@ -15925,7 +20018,7 @@
         <v>4.9207099999999997E-2</v>
       </c>
       <c r="Y40" s="29"/>
-      <c r="Z40" s="31"/>
+      <c r="Z40" s="34"/>
       <c r="AA40" s="13">
         <v>2</v>
       </c>
@@ -15956,7 +20049,7 @@
         <v>0.38889000000000001</v>
       </c>
       <c r="Y41" s="29"/>
-      <c r="Z41" s="31"/>
+      <c r="Z41" s="34"/>
       <c r="AA41" s="13">
         <v>3</v>
       </c>
@@ -15977,7 +20070,7 @@
     <row r="42" spans="13:33" x14ac:dyDescent="0.2">
       <c r="R42" s="5"/>
       <c r="Y42" s="29"/>
-      <c r="Z42" s="31"/>
+      <c r="Z42" s="34"/>
       <c r="AA42" s="13">
         <v>4</v>
       </c>
@@ -15998,7 +20091,7 @@
     <row r="43" spans="13:33" x14ac:dyDescent="0.2">
       <c r="R43" s="5"/>
       <c r="Y43" s="29"/>
-      <c r="Z43" s="32"/>
+      <c r="Z43" s="35"/>
       <c r="AA43" s="13" t="s">
         <v>48</v>
       </c>
@@ -16033,7 +20126,7 @@
       <c r="Y44" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="Z44" s="33" t="s">
+      <c r="Z44" s="30" t="s">
         <v>53</v>
       </c>
       <c r="AA44" s="10">
@@ -16054,7 +20147,7 @@
       </c>
       <c r="R45" s="5"/>
       <c r="Y45" s="29"/>
-      <c r="Z45" s="34"/>
+      <c r="Z45" s="31"/>
       <c r="AA45" s="10">
         <v>2</v>
       </c>
@@ -16072,7 +20165,7 @@
         <v>51.41</v>
       </c>
       <c r="Y46" s="29"/>
-      <c r="Z46" s="34"/>
+      <c r="Z46" s="31"/>
       <c r="AA46" s="10">
         <v>3</v>
       </c>
@@ -16090,7 +20183,7 @@
         <v>197.34</v>
       </c>
       <c r="Y47" s="29"/>
-      <c r="Z47" s="34"/>
+      <c r="Z47" s="31"/>
       <c r="AA47" s="10">
         <v>4</v>
       </c>
@@ -16108,7 +20201,7 @@
         <v>188.89</v>
       </c>
       <c r="Y48" s="29"/>
-      <c r="Z48" s="35"/>
+      <c r="Z48" s="32"/>
       <c r="AA48" s="10" t="s">
         <v>48</v>
       </c>
@@ -16135,7 +20228,7 @@
     </row>
     <row r="49" spans="25:51" ht="18" x14ac:dyDescent="0.2">
       <c r="Y49" s="29"/>
-      <c r="Z49" s="30" t="s">
+      <c r="Z49" s="33" t="s">
         <v>54</v>
       </c>
       <c r="AA49" s="13">
@@ -16163,7 +20256,7 @@
     </row>
     <row r="50" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y50" s="29"/>
-      <c r="Z50" s="31"/>
+      <c r="Z50" s="34"/>
       <c r="AA50" s="13">
         <v>2</v>
       </c>
@@ -16175,7 +20268,7 @@
     </row>
     <row r="51" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y51" s="29"/>
-      <c r="Z51" s="31"/>
+      <c r="Z51" s="34"/>
       <c r="AA51" s="13">
         <v>3</v>
       </c>
@@ -16187,7 +20280,7 @@
     </row>
     <row r="52" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y52" s="29"/>
-      <c r="Z52" s="31"/>
+      <c r="Z52" s="34"/>
       <c r="AA52" s="13">
         <v>4</v>
       </c>
@@ -16199,7 +20292,7 @@
     </row>
     <row r="53" spans="25:51" x14ac:dyDescent="0.2">
       <c r="Y53" s="29"/>
-      <c r="Z53" s="32"/>
+      <c r="Z53" s="35"/>
       <c r="AA53" s="13" t="s">
         <v>48</v>
       </c>
@@ -16794,6 +20887,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Y4:Y13"/>
+    <mergeCell ref="Z9:Z13"/>
+    <mergeCell ref="Z4:Z8"/>
+    <mergeCell ref="Y14:Y23"/>
+    <mergeCell ref="Z14:Z18"/>
+    <mergeCell ref="Z19:Z23"/>
     <mergeCell ref="Y44:Y53"/>
     <mergeCell ref="Z44:Z48"/>
     <mergeCell ref="Z49:Z53"/>
@@ -16803,12 +20902,6 @@
     <mergeCell ref="Y34:Y43"/>
     <mergeCell ref="Z34:Z38"/>
     <mergeCell ref="Z39:Z43"/>
-    <mergeCell ref="Y4:Y13"/>
-    <mergeCell ref="Z9:Z13"/>
-    <mergeCell ref="Z4:Z8"/>
-    <mergeCell ref="Y14:Y23"/>
-    <mergeCell ref="Z14:Z18"/>
-    <mergeCell ref="Z19:Z23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -18019,8 +22112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E6D4B-CBE1-6040-B05A-6A93103A9872}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18902,4 +22995,1705 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19617CC7-61CD-E148-8644-C913E4781F50}">
+  <dimension ref="B1:T56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="Q13:T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="27">
+        <v>2.1017000000000001E-2</v>
+      </c>
+      <c r="L3" s="27">
+        <v>0.46268100000000001</v>
+      </c>
+      <c r="M3" s="27">
+        <v>0.73818300000000003</v>
+      </c>
+      <c r="N3" s="27">
+        <v>3.3969</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="27">
+        <v>7.7707899999999999</v>
+      </c>
+      <c r="D4" s="27">
+        <v>10.5593</v>
+      </c>
+      <c r="E4" s="27">
+        <v>17.9405</v>
+      </c>
+      <c r="F4" s="27">
+        <v>49.355699999999999</v>
+      </c>
+      <c r="G4" s="27">
+        <v>118.029</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:M4" si="0">K3/K2</f>
+        <v>2.1017000000000002E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>4.6268100000000003E-3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>7.38183E-4</v>
+      </c>
+      <c r="N4">
+        <f>N3/N2</f>
+        <v>3.3969000000000002E-4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>1000</v>
+      </c>
+      <c r="T4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <f>C4/C2</f>
+        <v>7.7707899999999996E-4</v>
+      </c>
+      <c r="D5">
+        <f>D4/$C$2</f>
+        <v>1.0559300000000001E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:G5" si="1">E4/$C$2</f>
+        <v>1.7940499999999999E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4.9355700000000002E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.18029E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:M5" si="2">1/K4</f>
+        <v>475.80530047104719</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>216.13163280964636</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>1354.6776341367927</v>
+      </c>
+      <c r="N5">
+        <f>1/N4</f>
+        <v>2943.8605787629895</v>
+      </c>
+      <c r="P5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5">
+        <f>K5</f>
+        <v>475.80530047104719</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:T5" si="3">L5</f>
+        <v>216.13163280964636</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>1354.6776341367927</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>2943.8605787629895</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <f>1/C5</f>
+        <v>1286.8704468915003</v>
+      </c>
+      <c r="D6">
+        <f>1/D5</f>
+        <v>947.03247374352463</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:G6" si="4">1/E5</f>
+        <v>557.39806582871154</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>202.61084332711317</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>84.724940480729316</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="27">
+        <v>1.671E-3</v>
+      </c>
+      <c r="L6" s="27">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="M6" s="27">
+        <v>1.06E-4</v>
+      </c>
+      <c r="N6" s="27">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6">
+        <f>K13</f>
+        <v>43.145105619218555</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:T6" si="5">L13</f>
+        <v>11.382248927507593</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>15.857586189945339</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>20.959878600383149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="27">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="D7" s="27">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="E7" s="27">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1.5E-5</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="27">
+        <v>2.9359999999999998E-3</v>
+      </c>
+      <c r="L7" s="27">
+        <v>1.3237000000000001E-2</v>
+      </c>
+      <c r="M7" s="27">
+        <v>2.5933999999999999E-2</v>
+      </c>
+      <c r="N7" s="27">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7">
+        <f>K21</f>
+        <v>161.17074428649713</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:T7" si="6">L21</f>
+        <v>14.089130658370985</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>19.925756630793661</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>24.357984425504757</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.44706600000000002</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.57796199999999998</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0.88267899999999999</v>
+      </c>
+      <c r="F8" s="27">
+        <v>2.0925039999999999</v>
+      </c>
+      <c r="G8" s="27">
+        <v>4.0039259999999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="27">
+        <v>2.9359999999999998E-3</v>
+      </c>
+      <c r="L8" s="27">
+        <v>1.3237000000000001E-2</v>
+      </c>
+      <c r="M8" s="27">
+        <v>1.5202E-2</v>
+      </c>
+      <c r="N8" s="27">
+        <v>4.1770000000000002E-3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8">
+        <f>K29</f>
+        <v>692.47282044179769</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:S8" si="7">L29</f>
+        <v>84.676156041220338</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>184.22991893883568</v>
+      </c>
+      <c r="T8">
+        <f>N29</f>
+        <v>76.468384146574593</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="27">
+        <v>5.646E-3</v>
+      </c>
+      <c r="D9" s="27">
+        <v>9.1079999999999998E-3</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1.8856999999999999E-2</v>
+      </c>
+      <c r="F9" s="27">
+        <v>5.0427E-2</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0.13067699999999999</v>
+      </c>
+      <c r="P9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9">
+        <f>K37</f>
+        <v>695.60378408458541</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ref="R9:S9" si="8">L37</f>
+        <v>91.456165060086704</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="8"/>
+        <v>127.91485986927101</v>
+      </c>
+      <c r="T9">
+        <f>N37</f>
+        <v>84.724940480729316</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+      <c r="N10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="27">
+        <v>0.23177600000000001</v>
+      </c>
+      <c r="L11" s="27">
+        <v>8.7856100000000001</v>
+      </c>
+      <c r="M11" s="27">
+        <v>63.061300000000003</v>
+      </c>
+      <c r="N11" s="27">
+        <v>477.10199999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:M12" si="9">K11/K10</f>
+        <v>2.31776E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>8.7856100000000006E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="9"/>
+        <v>6.3061300000000001E-2</v>
+      </c>
+      <c r="N12">
+        <f>N11/N10</f>
+        <v>4.7710199999999994E-2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>100</v>
+      </c>
+      <c r="S12">
+        <v>1000</v>
+      </c>
+      <c r="T12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.497168</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.48933599999999999</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.71786300000000003</v>
+      </c>
+      <c r="F13" s="27">
+        <v>1.40306</v>
+      </c>
+      <c r="G13" s="27">
+        <v>3.3969</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:M13" si="10">1/K12</f>
+        <v>43.145105619218555</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>11.382248927507593</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="10"/>
+        <v>15.857586189945339</v>
+      </c>
+      <c r="N13">
+        <f>1/N12</f>
+        <v>20.959878600383149</v>
+      </c>
+      <c r="P13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13">
+        <f>K8</f>
+        <v>2.9359999999999998E-3</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:T13" si="11">L8</f>
+        <v>1.3237000000000001E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="11"/>
+        <v>1.5202E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="11"/>
+        <v>4.1770000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <f>C13/$C$2</f>
+        <v>4.9716799999999998E-5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:G14" si="12">D13/$C$2</f>
+        <v>4.8933600000000002E-5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="12"/>
+        <v>7.1786300000000001E-5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="12"/>
+        <v>1.4030600000000001E-4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="12"/>
+        <v>3.3969000000000002E-4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="27">
+        <v>1.1969E-2</v>
+      </c>
+      <c r="L14" s="27">
+        <v>1.0169999999999999E-3</v>
+      </c>
+      <c r="M14" s="27">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="N14" s="27">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="P14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14">
+        <f>K16</f>
+        <v>3.5147999999999999E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:T14" si="13">L16</f>
+        <v>0.40930699999999998</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="13"/>
+        <v>0.80165600000000004</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="13"/>
+        <v>0.77984100000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15">
+        <f>1/C14</f>
+        <v>20113.925272744829</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:G15" si="14">1/D14</f>
+        <v>20435.855935389998</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="14"/>
+        <v>13930.234599080883</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="14"/>
+        <v>7127.2789474434448</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="14"/>
+        <v>2943.8605787629895</v>
+      </c>
+      <c r="J15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="27">
+        <v>3.5147999999999999E-2</v>
+      </c>
+      <c r="L15" s="27">
+        <v>0.40930699999999998</v>
+      </c>
+      <c r="M15" s="27">
+        <v>1.796332</v>
+      </c>
+      <c r="N15" s="27">
+        <v>3.0029669999999999</v>
+      </c>
+      <c r="P15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15">
+        <f>K24</f>
+        <v>1.0156E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ref="R15:T15" si="15">L24</f>
+        <v>0.32120399999999999</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="15"/>
+        <v>0.75195100000000004</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="15"/>
+        <v>0.58829200000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="27">
+        <v>2.3E-5</v>
+      </c>
+      <c r="D16" s="27">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="E16" s="27">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="F16" s="27">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="G16" s="27">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="27">
+        <v>3.5147999999999999E-2</v>
+      </c>
+      <c r="L16" s="27">
+        <v>0.40930699999999998</v>
+      </c>
+      <c r="M16" s="27">
+        <v>0.80165600000000004</v>
+      </c>
+      <c r="N16" s="27">
+        <v>0.77984100000000001</v>
+      </c>
+      <c r="P16" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q16">
+        <f>K32</f>
+        <v>3.1229999999999999E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16:T16" si="16">L32</f>
+        <v>9.4653000000000001E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="16"/>
+        <v>6.9028000000000006E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="16"/>
+        <v>0.230961</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1.292E-3</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1.4530000000000001E-3</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2.1930000000000001E-3</v>
+      </c>
+      <c r="F17" s="27">
+        <v>8.7670000000000005E-3</v>
+      </c>
+      <c r="G17" s="27">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17">
+        <f>K40</f>
+        <v>2.9160000000000002E-3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:T17" si="17">L40</f>
+        <v>9.7365999999999994E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="17"/>
+        <v>0.127165</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="17"/>
+        <v>0.13067699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="27">
+        <v>1.92E-4</v>
+      </c>
+      <c r="D18" s="27">
+        <v>1.27E-4</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="F18" s="27">
+        <v>9.5299999999999996E-4</v>
+      </c>
+      <c r="G18" s="27">
+        <v>4.1770000000000002E-3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2">
+        <v>100</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="27">
+        <v>6.2045999999999997E-2</v>
+      </c>
+      <c r="L19" s="27">
+        <v>7.0976699999999999</v>
+      </c>
+      <c r="M19" s="27">
+        <v>50.186300000000003</v>
+      </c>
+      <c r="N19" s="27">
+        <v>410.54300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" ref="K20:M20" si="18">K19/K18</f>
+        <v>6.2045999999999994E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="18"/>
+        <v>7.0976700000000004E-2</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="18"/>
+        <v>5.0186300000000003E-2</v>
+      </c>
+      <c r="N20" s="2">
+        <f>N19/N18</f>
+        <v>4.1054300000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" ref="K21:M21" si="19">1/K20</f>
+        <v>161.17074428649713</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="19"/>
+        <v>14.089130658370985</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="19"/>
+        <v>19.925756630793661</v>
+      </c>
+      <c r="N21" s="2">
+        <f>1/N20</f>
+        <v>24.357984425504757</v>
+      </c>
+      <c r="P21" s="27"/>
+    </row>
+    <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L22" s="27">
+        <v>1.047E-3</v>
+      </c>
+      <c r="M22" s="27">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="N22" s="27">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="27">
+        <v>1.0156E-2</v>
+      </c>
+      <c r="L23" s="27">
+        <v>0.32120399999999999</v>
+      </c>
+      <c r="M23" s="27">
+        <v>1.32823</v>
+      </c>
+      <c r="N23" s="27">
+        <v>2.2137799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="27">
+        <v>1.0156E-2</v>
+      </c>
+      <c r="L24" s="27">
+        <v>0.32120399999999999</v>
+      </c>
+      <c r="M24" s="27">
+        <v>0.75195100000000004</v>
+      </c>
+      <c r="N24" s="27">
+        <v>0.58829200000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="2">
+        <v>10</v>
+      </c>
+      <c r="L26" s="2">
+        <v>100</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="27">
+        <v>1.4441000000000001E-2</v>
+      </c>
+      <c r="L27" s="27">
+        <v>1.1809700000000001</v>
+      </c>
+      <c r="M27" s="27">
+        <v>5.4279999999999999</v>
+      </c>
+      <c r="N27" s="27">
+        <v>130.773</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" ref="K28:M28" si="20">K27/K26</f>
+        <v>1.4441E-3</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="20"/>
+        <v>1.1809700000000001E-2</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="20"/>
+        <v>5.4279999999999997E-3</v>
+      </c>
+      <c r="N28" s="2">
+        <f>N27/N26</f>
+        <v>1.30773E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" ref="K29:M29" si="21">1/K28</f>
+        <v>692.47282044179769</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="21"/>
+        <v>84.676156041220338</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="21"/>
+        <v>184.22991893883568</v>
+      </c>
+      <c r="N29" s="2">
+        <f>1/N28</f>
+        <v>76.468384146574593</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="27">
+        <v>4.6700000000000002E-4</v>
+      </c>
+      <c r="L30" s="27">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="M30" s="27">
+        <v>3.4E-5</v>
+      </c>
+      <c r="N30" s="27">
+        <v>1.7E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="27">
+        <v>3.1229999999999999E-3</v>
+      </c>
+      <c r="L31" s="27">
+        <v>9.4653000000000001E-2</v>
+      </c>
+      <c r="M31" s="27">
+        <v>0.32847599999999999</v>
+      </c>
+      <c r="N31" s="27">
+        <v>4.3834309999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" s="27">
+        <v>3.1229999999999999E-3</v>
+      </c>
+      <c r="L32" s="27">
+        <v>9.4653000000000001E-2</v>
+      </c>
+      <c r="M32" s="27">
+        <v>6.9028000000000006E-2</v>
+      </c>
+      <c r="N32" s="27">
+        <v>0.230961</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="2">
+        <v>10</v>
+      </c>
+      <c r="L34" s="2">
+        <v>100</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N34" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="27">
+        <v>1.4376E-2</v>
+      </c>
+      <c r="L35" s="27">
+        <v>1.0934200000000001</v>
+      </c>
+      <c r="M35" s="27">
+        <v>7.8177000000000003</v>
+      </c>
+      <c r="N35" s="27">
+        <v>118.029</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36" si="22">K35/K34</f>
+        <v>1.4376E-3</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36" si="23">L35/L34</f>
+        <v>1.09342E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36" si="24">M35/M34</f>
+        <v>7.8177000000000003E-3</v>
+      </c>
+      <c r="N36">
+        <f>N35/N34</f>
+        <v>1.18029E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37" si="25">1/K36</f>
+        <v>695.60378408458541</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ref="L37" si="26">1/L36</f>
+        <v>91.456165060086704</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37" si="27">1/M36</f>
+        <v>127.91485986927101</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37" si="28">1/N36</f>
+        <v>84.724940480729316</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="27">
+        <v>3.4699999999999998E-4</v>
+      </c>
+      <c r="L38" s="27">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="M38" s="27">
+        <v>2.8E-5</v>
+      </c>
+      <c r="N38" s="27">
+        <v>1.5999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" s="27">
+        <v>2.9160000000000002E-3</v>
+      </c>
+      <c r="L39" s="27">
+        <v>9.7365999999999994E-2</v>
+      </c>
+      <c r="M39" s="27">
+        <v>0.384021</v>
+      </c>
+      <c r="N39" s="27">
+        <v>4.0039259999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="27">
+        <v>2.9160000000000002E-3</v>
+      </c>
+      <c r="L40" s="27">
+        <v>9.7365999999999994E-2</v>
+      </c>
+      <c r="M40" s="27">
+        <v>0.127165</v>
+      </c>
+      <c r="N40" s="27">
+        <v>0.13067699999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="2">
+        <v>10</v>
+      </c>
+      <c r="L42" s="2">
+        <v>100</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N42" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K50" s="2">
+        <v>10</v>
+      </c>
+      <c r="L50" s="2">
+        <v>100</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N50" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A30DE3-8505-CA42-9912-681DD4F1AEFD}">
+  <dimension ref="A3:W36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+    </row>
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>475.80530047104719</v>
+      </c>
+      <c r="C24">
+        <v>216.13163280964636</v>
+      </c>
+      <c r="D24">
+        <v>1354.6776341367927</v>
+      </c>
+      <c r="E24">
+        <v>2943.8605787629895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25">
+        <v>43.145105619218555</v>
+      </c>
+      <c r="C25">
+        <v>11.382248927507593</v>
+      </c>
+      <c r="D25">
+        <v>15.857586189945339</v>
+      </c>
+      <c r="E25">
+        <v>20.959878600383149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26">
+        <v>161.17074428649713</v>
+      </c>
+      <c r="C26">
+        <v>14.089130658370985</v>
+      </c>
+      <c r="D26">
+        <v>19.925756630793661</v>
+      </c>
+      <c r="E26">
+        <v>24.357984425504757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27">
+        <v>692.47282044179769</v>
+      </c>
+      <c r="C27">
+        <v>84.676156041220338</v>
+      </c>
+      <c r="D27">
+        <v>184.22991893883568</v>
+      </c>
+      <c r="E27">
+        <v>76.468384146574593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28">
+        <v>695.60378408458541</v>
+      </c>
+      <c r="C28">
+        <v>91.456165060086704</v>
+      </c>
+      <c r="D28">
+        <v>127.91485986927101</v>
+      </c>
+      <c r="E28">
+        <v>84.724940480729316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32">
+        <v>2.9359999999999998E-3</v>
+      </c>
+      <c r="C32">
+        <v>1.3237000000000001E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.5202E-2</v>
+      </c>
+      <c r="E32">
+        <v>4.1770000000000002E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33">
+        <v>3.5147999999999999E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.40930699999999998</v>
+      </c>
+      <c r="D33">
+        <v>0.80165600000000004</v>
+      </c>
+      <c r="E33">
+        <v>0.77984100000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34">
+        <v>1.0156E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.32120399999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.75195100000000004</v>
+      </c>
+      <c r="E34">
+        <v>0.58829200000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35">
+        <v>3.1229999999999999E-3</v>
+      </c>
+      <c r="C35">
+        <v>9.4653000000000001E-2</v>
+      </c>
+      <c r="D35">
+        <v>6.9028000000000006E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.230961</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36">
+        <v>2.9160000000000002E-3</v>
+      </c>
+      <c r="C36">
+        <v>9.7365999999999994E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.127165</v>
+      </c>
+      <c r="E36">
+        <v>0.13067699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/expresults.xlsx
+++ b/expresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansonthai/Downloads/summer-research-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E33D0F-666F-A14F-939D-0D3B89871093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153C97B6-8A78-D14E-BF08-C3B7BBDCEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="6720" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
+    <workbookView xWindow="13520" yWindow="5660" windowWidth="29840" windowHeight="20500" activeTab="6" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
   </bookViews>
   <sheets>
     <sheet name="Indexing" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Query Evaluation V2" sheetId="4" r:id="rId4"/>
     <sheet name="QE core" sheetId="5" r:id="rId5"/>
     <sheet name="QE core graphs" sheetId="7" r:id="rId6"/>
+    <sheet name="Doterms timer" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="139">
   <si>
     <t>Main</t>
   </si>
@@ -430,6 +431,33 @@
   <si>
     <t>Tail Latency</t>
   </si>
+  <si>
+    <t>doterms</t>
+  </si>
+  <si>
+    <t>synch</t>
+  </si>
+  <si>
+    <t> 0.001145</t>
+  </si>
+  <si>
+    <t>doterms last</t>
+  </si>
+  <si>
+    <t>doterms avg</t>
+  </si>
+  <si>
+    <t>tail latency avg</t>
+  </si>
+  <si>
+    <t>tail latency last</t>
+  </si>
+  <si>
+    <t>cmap-pm-dc</t>
+  </si>
+  <si>
+    <t>run with 8-cores</t>
+  </si>
 </sst>
 </file>
 
@@ -438,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -483,6 +511,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -616,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -667,6 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18561,8 +18597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE00D276-BD42-7F42-AA46-503412D3BF31}">
   <dimension ref="A1:AY83"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+    <sheetView topLeftCell="U1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="AG33" sqref="AG33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23002,7 +23038,7 @@
   <dimension ref="B1:T56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="Q13:T17"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24313,8 +24349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A30DE3-8505-CA42-9912-681DD4F1AEFD}">
   <dimension ref="A3:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24696,4 +24732,924 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E82E6-6AED-6B43-A259-6D322982F850}">
+  <dimension ref="B1:T56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+    </row>
+    <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="27">
+        <v>7.5048269999999997</v>
+      </c>
+      <c r="D4" s="27">
+        <v>2.6449120000000002</v>
+      </c>
+      <c r="E4" s="27">
+        <v>2.2047430000000001</v>
+      </c>
+      <c r="F4" s="27">
+        <v>3.69794</v>
+      </c>
+      <c r="G4" s="27">
+        <v>3.69794</v>
+      </c>
+      <c r="J4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>1000</v>
+      </c>
+      <c r="T4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="27">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1.848E-3</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1.848E-3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:T5" si="0">L5</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="P6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6">
+        <f>K13</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:T6" si="1">L13</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="P7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7">
+        <f>K21</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:T7" si="2">L21</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="P8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8">
+        <f>K29</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:S8" si="3">L29</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>N29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="P9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9">
+        <f>K37</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ref="R9:S9" si="4">L37</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>N37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+      <c r="N10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>100</v>
+      </c>
+      <c r="S12">
+        <v>1000</v>
+      </c>
+      <c r="T12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="27">
+        <v>13.572281</v>
+      </c>
+      <c r="D13" s="27">
+        <v>4.1567220000000002</v>
+      </c>
+      <c r="E13" s="27">
+        <v>7.9517829999999998</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="P13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13">
+        <f>K8</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:T13" si="5">L8</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="27">
+        <v>1.0820000000000001E-3</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1.573E-3</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1.7420000000000001E-3</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="P14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14">
+        <f>K16</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:T14" si="6">L16</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="P15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15">
+        <f>K24</f>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ref="R15:T15" si="7">L24</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="P16" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q16">
+        <f>K32</f>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16:T16" si="8">L32</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="P17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17">
+        <f>K40</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:T17" si="9">L40</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="J18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2">
+        <v>100</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="P21" s="27"/>
+    </row>
+    <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J22" s="2"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J23" s="2"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J24" s="2"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26">
+        <v>10000</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="2">
+        <v>10</v>
+      </c>
+      <c r="L26" s="2">
+        <v>100</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+    </row>
+    <row r="28" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="27">
+        <v>11.234544</v>
+      </c>
+      <c r="D28" s="27">
+        <v>5.1537790000000001</v>
+      </c>
+      <c r="E28" s="27">
+        <v>6.5643440000000002</v>
+      </c>
+      <c r="F28" s="27">
+        <v>11.670679</v>
+      </c>
+      <c r="G28" s="27">
+        <v>13.103910000000001</v>
+      </c>
+      <c r="J28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="27">
+        <v>11.129223</v>
+      </c>
+      <c r="D29" s="27">
+        <v>5.0610160000000004</v>
+      </c>
+      <c r="E29" s="27">
+        <v>6.2808020000000004</v>
+      </c>
+      <c r="F29" s="27">
+        <v>11.905365</v>
+      </c>
+      <c r="G29" s="27">
+        <v>12.274374999999999</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="27">
+        <v>6.4300000000000002E-4</v>
+      </c>
+      <c r="D30" s="27">
+        <v>1.555E-3</v>
+      </c>
+      <c r="E30" s="27">
+        <v>3.98E-3</v>
+      </c>
+      <c r="F30" s="27">
+        <v>1.0198E-2</v>
+      </c>
+      <c r="G30" s="27">
+        <v>3.3401E-2</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+    </row>
+    <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="27">
+        <v>1.0518E-2</v>
+      </c>
+      <c r="D31" s="27">
+        <v>2.1340000000000001E-2</v>
+      </c>
+      <c r="E31" s="27">
+        <v>6.2631000000000006E-2</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0.21266199999999999</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0.48931400000000003</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="27">
+        <v>1.0373E-2</v>
+      </c>
+      <c r="D32" s="27">
+        <v>2.1832000000000001E-2</v>
+      </c>
+      <c r="E32" s="27">
+        <v>5.8819000000000003E-2</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0.20059099999999999</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0.49596699999999999</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="2">
+        <v>10</v>
+      </c>
+      <c r="L34" s="2">
+        <v>100</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N34" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="10:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J38" s="2"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+    </row>
+    <row r="39" spans="10:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J39" s="2"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+    </row>
+    <row r="40" spans="10:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J40" s="2"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="2">
+        <v>10</v>
+      </c>
+      <c r="L42" s="2">
+        <v>100</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N42" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K50" s="2">
+        <v>10</v>
+      </c>
+      <c r="L50" s="2">
+        <v>100</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N50" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/expresults.xlsx
+++ b/expresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansonthai/Downloads/summer-research-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153C97B6-8A78-D14E-BF08-C3B7BBDCEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94AD92E-CE2D-704B-9F79-0192F40DAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="5660" windowWidth="29840" windowHeight="20500" activeTab="6" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{545D3D87-BFDF-DF4F-A4B6-49EF553C2706}"/>
   </bookViews>
   <sheets>
     <sheet name="Indexing" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="139">
   <si>
     <t>Main</t>
   </si>
@@ -432,13 +454,7 @@
     <t>Tail Latency</t>
   </si>
   <si>
-    <t>doterms</t>
-  </si>
-  <si>
     <t>synch</t>
-  </si>
-  <si>
-    <t> 0.001145</t>
   </si>
   <si>
     <t>doterms last</t>
@@ -457,6 +473,12 @@
   </si>
   <si>
     <t>run with 8-cores</t>
+  </si>
+  <si>
+    <t>10 Repeats, 10000 queries</t>
+  </si>
+  <si>
+    <t>Doterms avg table</t>
   </si>
 </sst>
 </file>
@@ -5765,6 +5787,1014 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Doterms timer'!$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$66:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.429015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8718759999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6190339999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4590529999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0692740000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EB9-384B-B4D6-A4215F107A88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Doterms timer'!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cmap-pm-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$67:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.234544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1537790000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5643440000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.670679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.103910000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5EB9-384B-B4D6-A4215F107A88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Doterms timer'!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cmap-pm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$68:$G$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.516795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2080419999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2711779999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.288795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6817279999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5EB9-384B-B4D6-A4215F107A88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Doterms timer'!$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$69:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.6781829999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7201930000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.711754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9643380000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1014710000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EB9-384B-B4D6-A4215F107A88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Doterms timer'!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-sst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$70:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0535219999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.67625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3097859999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0681339999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3683100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5EB9-384B-B4D6-A4215F107A88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Doterms timer'!$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm-dc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.345143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2281190000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4368590000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7406539999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6919909999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5EB9-384B-B4D6-A4215F107A88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Doterms timer'!$B$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>table-pm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Doterms timer'!$C$72:$G$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.48062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1504159999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2366830000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.055014999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.804500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5EB9-384B-B4D6-A4215F107A88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1692826032"/>
+        <c:axId val="1303214160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1692826032"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1303214160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1303214160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Total Query Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692826032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -10253,6 +11283,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13141,6 +14211,522 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18298,6 +19884,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132130</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>135722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>384848</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25656</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F43BB71-0F60-044B-997D-27714810968D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -24349,7 +25976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A30DE3-8505-CA42-9912-681DD4F1AEFD}">
   <dimension ref="A3:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -24736,10 +26363,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E82E6-6AED-6B43-A259-6D322982F850}">
-  <dimension ref="B1:T56"/>
+  <dimension ref="B1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="99" workbookViewId="0">
+      <selection activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24752,20 +26379,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
       <c r="J1" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
       <c r="J2" t="s">
         <v>122</v>
       </c>
@@ -24783,54 +26401,43 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>32</v>
-      </c>
       <c r="J3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+        <v>132</v>
+      </c>
+      <c r="K3" s="27">
+        <v>2.2729999999999998E-3</v>
+      </c>
+      <c r="L3" s="27">
+        <v>6.4737000000000003E-2</v>
+      </c>
+      <c r="M3" s="27">
+        <v>1.432364</v>
+      </c>
+      <c r="N3" s="27">
+        <v>8.6190339999999992</v>
+      </c>
     </row>
     <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="27">
-        <v>7.5048269999999997</v>
-      </c>
-      <c r="D4" s="27">
-        <v>2.6449120000000002</v>
-      </c>
-      <c r="E4" s="27">
-        <v>2.2047430000000001</v>
-      </c>
-      <c r="F4" s="27">
-        <v>3.69794</v>
-      </c>
-      <c r="G4" s="27">
-        <v>3.69794</v>
-      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="J4" t="s">
         <v>131</v>
       </c>
+      <c r="K4" s="27">
+        <v>1.8730000000000001E-3</v>
+      </c>
+      <c r="L4" s="27">
+        <v>6.0227000000000003E-2</v>
+      </c>
+      <c r="M4" s="27">
+        <v>1.025795</v>
+      </c>
+      <c r="N4" s="27">
+        <v>7.9104210000000004</v>
+      </c>
       <c r="P4" t="s">
         <v>99</v>
       </c>
@@ -24848,49 +26455,65 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="27">
-        <v>5.3899999999999998E-4</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="27">
-        <v>1.4300000000000001E-3</v>
-      </c>
-      <c r="F5" s="27">
-        <v>1.848E-3</v>
-      </c>
-      <c r="G5" s="27">
-        <v>1.848E-3</v>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="27">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="L5" s="27">
+        <v>2.8E-5</v>
+      </c>
+      <c r="M5" s="27">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N5" s="27">
+        <v>1.812E-3</v>
       </c>
       <c r="P5" t="s">
         <v>122</v>
       </c>
       <c r="Q5">
         <f>K5</f>
-        <v>0</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="R5">
         <f t="shared" ref="R5:T5" si="0">L5</f>
-        <v>0</v>
+        <v>2.8E-5</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.812E-3</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="27">
+        <v>1.7949999999999999E-3</v>
+      </c>
+      <c r="L6" s="27">
+        <v>2.9475999999999999E-2</v>
+      </c>
+      <c r="M6" s="27">
+        <v>0.38849099999999998</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0.120418</v>
+      </c>
       <c r="P6" t="s">
         <v>121</v>
       </c>
@@ -24912,15 +26535,24 @@
       </c>
     </row>
     <row r="7" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1.6050000000000001E-3</v>
+      </c>
+      <c r="L7" s="27">
+        <v>3.0061000000000001E-2</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0.11423700000000001</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0.11683499999999999</v>
+      </c>
       <c r="P7" t="s">
         <v>124</v>
       </c>
@@ -24942,11 +26574,24 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
@@ -24972,11 +26617,24 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="27">
+        <v>13.429015</v>
+      </c>
+      <c r="D9" s="27">
+        <v>3.8718759999999999</v>
+      </c>
+      <c r="E9" s="27">
+        <v>8.6190339999999992</v>
+      </c>
+      <c r="F9" s="27">
+        <v>2.4590529999999999</v>
+      </c>
+      <c r="G9" s="27">
+        <v>2.0692740000000001</v>
+      </c>
       <c r="P9" t="s">
         <v>128</v>
       </c>
@@ -24997,7 +26655,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="27">
+        <v>13.389934999999999</v>
+      </c>
+      <c r="D10" s="27">
+        <v>3.8192740000000001</v>
+      </c>
+      <c r="E10" s="27">
+        <v>7.9104210000000004</v>
+      </c>
+      <c r="F10" s="27">
+        <v>2.0245289999999998</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1.927022</v>
+      </c>
       <c r="J10" t="s">
         <v>121</v>
       </c>
@@ -25016,37 +26692,49 @@
     </row>
     <row r="11" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11">
-        <v>10000</v>
+        <v>130</v>
+      </c>
+      <c r="C11" s="27">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="D11" s="27">
+        <v>1.5380000000000001E-3</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1.812E-3</v>
+      </c>
+      <c r="F11" s="27">
+        <v>2.2079999999999999E-3</v>
+      </c>
+      <c r="G11" s="27">
+        <v>2.3640000000000002E-3</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>32</v>
+        <v>133</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1.4010999999999999E-2</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1.5866999999999999E-2</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.120418</v>
+      </c>
+      <c r="F12" s="27">
+        <v>3.8145999999999999E-2</v>
+      </c>
+      <c r="G12" s="27">
+        <v>7.0529999999999995E-2</v>
       </c>
       <c r="J12" t="s">
         <v>131</v>
@@ -25069,19 +26757,26 @@
     </row>
     <row r="13" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="27">
+        <v>1.4017999999999999E-2</v>
+      </c>
+      <c r="D13" s="27">
+        <v>1.5654000000000001E-2</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.11683499999999999</v>
+      </c>
+      <c r="F13" s="27">
+        <v>3.9521000000000001E-2</v>
+      </c>
+      <c r="G13" s="27">
+        <v>7.3783000000000001E-2</v>
+      </c>
+      <c r="J13" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="27">
-        <v>13.572281</v>
-      </c>
-      <c r="D13" s="27">
-        <v>4.1567220000000002</v>
-      </c>
-      <c r="E13" s="27">
-        <v>7.9517829999999998</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
       <c r="P13" t="s">
         <v>122</v>
       </c>
@@ -25103,20 +26798,14 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="27">
-        <v>1.0820000000000001E-3</v>
-      </c>
-      <c r="D14" s="27">
-        <v>1.573E-3</v>
-      </c>
-      <c r="E14" s="27">
-        <v>1.7420000000000001E-3</v>
-      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -25142,6 +26831,12 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -25167,11 +26862,24 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>32</v>
+      </c>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -25197,11 +26905,24 @@
       </c>
     </row>
     <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="27">
+        <v>11.234544</v>
+      </c>
+      <c r="D17" s="27">
+        <v>5.1537790000000001</v>
+      </c>
+      <c r="E17" s="27">
+        <v>6.5643440000000002</v>
+      </c>
+      <c r="F17" s="27">
+        <v>11.670679</v>
+      </c>
+      <c r="G17" s="27">
+        <v>13.103910000000001</v>
+      </c>
       <c r="P17" t="s">
         <v>128</v>
       </c>
@@ -25223,11 +26944,24 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="27">
+        <v>11.129223</v>
+      </c>
+      <c r="D18" s="27">
+        <v>5.0610160000000004</v>
+      </c>
+      <c r="E18" s="27">
+        <v>6.2808020000000004</v>
+      </c>
+      <c r="F18" s="27">
+        <v>11.905365</v>
+      </c>
+      <c r="G18" s="27">
+        <v>12.274374999999999</v>
+      </c>
       <c r="J18" t="s">
         <v>124</v>
       </c>
@@ -25245,15 +26979,51 @@
       </c>
     </row>
     <row r="19" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="27">
+        <v>6.4300000000000002E-4</v>
+      </c>
+      <c r="D19" s="27">
+        <v>1.555E-3</v>
+      </c>
+      <c r="E19" s="27">
+        <v>3.98E-3</v>
+      </c>
+      <c r="F19" s="27">
+        <v>1.0198E-2</v>
+      </c>
+      <c r="G19" s="27">
+        <v>3.3401E-2</v>
+      </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1.0518E-2</v>
+      </c>
+      <c r="D20" s="27">
+        <v>2.1340000000000001E-2</v>
+      </c>
+      <c r="E20" s="27">
+        <v>6.2631000000000006E-2</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0.21266199999999999</v>
+      </c>
+      <c r="G20" s="27">
+        <v>0.48931400000000003</v>
+      </c>
       <c r="J20" t="s">
         <v>131</v>
       </c>
@@ -25263,7 +27033,27 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="J21" s="2"/>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="27">
+        <v>1.0373E-2</v>
+      </c>
+      <c r="D21" s="27">
+        <v>2.1832000000000001E-2</v>
+      </c>
+      <c r="E21" s="27">
+        <v>5.8819000000000003E-2</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0.20059099999999999</v>
+      </c>
+      <c r="G21" s="27">
+        <v>0.49596699999999999</v>
+      </c>
+      <c r="J21" t="s">
+        <v>130</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -25271,32 +27061,89 @@
       <c r="P21" s="27"/>
     </row>
     <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="J22" s="2"/>
+      <c r="J22" t="s">
+        <v>133</v>
+      </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="J23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>134</v>
+      </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>32</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="27">
+        <v>12.516795</v>
+      </c>
+      <c r="D25" s="27">
+        <v>5.2080419999999998</v>
+      </c>
+      <c r="E25" s="27">
+        <v>7.2711779999999999</v>
+      </c>
+      <c r="F25" s="27">
+        <v>10.288795</v>
+      </c>
+      <c r="G25" s="27">
+        <v>9.6817279999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26">
-        <v>10000</v>
+        <v>131</v>
+      </c>
+      <c r="C26" s="27">
+        <v>12.473140000000001</v>
+      </c>
+      <c r="D26" s="27">
+        <v>5.0254519999999996</v>
+      </c>
+      <c r="E26" s="27">
+        <v>7.8049470000000003</v>
+      </c>
+      <c r="F26" s="27">
+        <v>12.02821</v>
+      </c>
+      <c r="G26" s="27">
+        <v>11.066649999999999</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>123</v>
@@ -25316,25 +27163,25 @@
     </row>
     <row r="27" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>8</v>
-      </c>
-      <c r="F27">
-        <v>16</v>
-      </c>
-      <c r="G27">
-        <v>32</v>
+        <v>130</v>
+      </c>
+      <c r="C27" s="27">
+        <v>6.9399999999999996E-4</v>
+      </c>
+      <c r="D27" s="27">
+        <v>1.586E-3</v>
+      </c>
+      <c r="E27" s="27">
+        <v>6.1380000000000002E-3</v>
+      </c>
+      <c r="F27" s="27">
+        <v>2.2117999999999999E-2</v>
+      </c>
+      <c r="G27" s="27">
+        <v>4.5428000000000003E-2</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -25343,22 +27190,22 @@
     </row>
     <row r="28" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="27">
-        <v>11.234544</v>
+        <v>1.1464E-2</v>
       </c>
       <c r="D28" s="27">
-        <v>5.1537790000000001</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="E28" s="27">
-        <v>6.5643440000000002</v>
+        <v>6.6957000000000003E-2</v>
       </c>
       <c r="F28" s="27">
-        <v>11.670679</v>
+        <v>0.177782</v>
       </c>
       <c r="G28" s="27">
-        <v>13.103910000000001</v>
+        <v>0.34031</v>
       </c>
       <c r="J28" t="s">
         <v>131</v>
@@ -25370,74 +27217,47 @@
     </row>
     <row r="29" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="27">
-        <v>11.129223</v>
+        <v>1.1372999999999999E-2</v>
       </c>
       <c r="D29" s="27">
-        <v>5.0610160000000004</v>
+        <v>2.2095E-2</v>
       </c>
       <c r="E29" s="27">
-        <v>6.2808020000000004</v>
+        <v>6.8635000000000002E-2</v>
       </c>
       <c r="F29" s="27">
-        <v>11.905365</v>
+        <v>0.18801399999999999</v>
       </c>
       <c r="G29" s="27">
-        <v>12.274374999999999</v>
-      </c>
-      <c r="J29" s="2"/>
+        <v>0.39918300000000001</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="27">
-        <v>6.4300000000000002E-4</v>
-      </c>
-      <c r="D30" s="27">
-        <v>1.555E-3</v>
-      </c>
-      <c r="E30" s="27">
-        <v>3.98E-3</v>
-      </c>
-      <c r="F30" s="27">
-        <v>1.0198E-2</v>
-      </c>
-      <c r="G30" s="27">
-        <v>3.3401E-2</v>
-      </c>
-      <c r="J30" s="2"/>
+      <c r="J30" t="s">
+        <v>133</v>
+      </c>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="27">
-        <v>1.0518E-2</v>
-      </c>
-      <c r="D31" s="27">
-        <v>2.1340000000000001E-2</v>
-      </c>
-      <c r="E31" s="27">
-        <v>6.2631000000000006E-2</v>
-      </c>
-      <c r="F31" s="27">
-        <v>0.21266199999999999</v>
-      </c>
-      <c r="G31" s="27">
-        <v>0.48931400000000003</v>
-      </c>
-      <c r="J31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" t="s">
+        <v>134</v>
+      </c>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
@@ -25445,22 +27265,22 @@
     </row>
     <row r="32" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="27">
-        <v>1.0373E-2</v>
-      </c>
-      <c r="D32" s="27">
-        <v>2.1832000000000001E-2</v>
-      </c>
-      <c r="E32" s="27">
-        <v>5.8819000000000003E-2</v>
-      </c>
-      <c r="F32" s="27">
-        <v>0.20059099999999999</v>
-      </c>
-      <c r="G32" s="27">
-        <v>0.49596699999999999</v>
+        <v>119</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>32</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="27"/>
@@ -25468,7 +27288,45 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="27">
+        <v>7.6781829999999998</v>
+      </c>
+      <c r="D33" s="27">
+        <v>2.7201930000000001</v>
+      </c>
+      <c r="E33" s="27">
+        <v>2.711754</v>
+      </c>
+      <c r="F33" s="27">
+        <v>3.9643380000000001</v>
+      </c>
+      <c r="G33" s="27">
+        <v>5.1014710000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="27">
+        <v>7.6369870000000004</v>
+      </c>
+      <c r="D34" s="27">
+        <v>2.7989459999999999</v>
+      </c>
+      <c r="E34" s="27">
+        <v>2.7028979999999998</v>
+      </c>
+      <c r="F34" s="27">
+        <v>3.359604</v>
+      </c>
+      <c r="G34" s="27">
+        <v>4.6498169999999996</v>
+      </c>
       <c r="J34" s="2" t="s">
         <v>125</v>
       </c>
@@ -25485,45 +27343,164 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="10:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="27">
+        <v>6.1899999999999998E-4</v>
+      </c>
+      <c r="D35" s="27">
+        <v>1.3489999999999999E-3</v>
+      </c>
+      <c r="E35" s="27">
+        <v>2.8029999999999999E-3</v>
+      </c>
+      <c r="F35" s="27">
+        <v>1.2843E-2</v>
+      </c>
+      <c r="G35" s="27">
+        <v>2.9425E-2</v>
+      </c>
       <c r="J35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="27">
+        <v>5.3109999999999997E-3</v>
+      </c>
+      <c r="D36" s="27">
+        <v>8.5089999999999992E-3</v>
+      </c>
+      <c r="E36" s="27">
+        <v>2.1204000000000001E-2</v>
+      </c>
+      <c r="F36" s="27">
+        <v>6.8242999999999998E-2</v>
+      </c>
+      <c r="G36" s="27">
+        <v>0.18615100000000001</v>
+      </c>
       <c r="J36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="10:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="J38" s="2"/>
+    <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="27">
+        <v>5.3150000000000003E-3</v>
+      </c>
+      <c r="D37" s="27">
+        <v>9.8139999999999998E-3</v>
+      </c>
+      <c r="E37" s="27">
+        <v>2.0194E-2</v>
+      </c>
+      <c r="F37" s="27">
+        <v>6.6563999999999998E-2</v>
+      </c>
+      <c r="G37" s="27">
+        <v>0.16725699999999999</v>
+      </c>
+      <c r="J37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>133</v>
+      </c>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
     </row>
-    <row r="39" spans="10:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="J39" s="2"/>
+    <row r="39" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>134</v>
+      </c>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
     </row>
-    <row r="40" spans="10:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>16</v>
+      </c>
+      <c r="G40">
+        <v>32</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="27"/>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
     </row>
-    <row r="42" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="27">
+        <v>8.0535219999999992</v>
+      </c>
+      <c r="D41" s="27">
+        <v>2.67625</v>
+      </c>
+      <c r="E41" s="27">
+        <v>2.3097859999999999</v>
+      </c>
+      <c r="F41" s="27">
+        <v>4.0681339999999997</v>
+      </c>
+      <c r="G41" s="27">
+        <v>5.3683100000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="27">
+        <v>8.0251610000000007</v>
+      </c>
+      <c r="D42" s="27">
+        <v>2.7262019999999998</v>
+      </c>
+      <c r="E42" s="27">
+        <v>2.220615</v>
+      </c>
+      <c r="F42" s="27">
+        <v>4.6541139999999999</v>
+      </c>
+      <c r="G42" s="27">
+        <v>5.2832710000000001</v>
+      </c>
       <c r="J42" s="2" t="s">
         <v>126</v>
       </c>
@@ -25540,53 +27517,212 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="27">
+        <v>5.7799999999999995E-4</v>
+      </c>
+      <c r="D43" s="27">
+        <v>1.2719999999999999E-3</v>
+      </c>
+      <c r="E43" s="27">
+        <v>2.5479999999999999E-3</v>
+      </c>
+      <c r="F43" s="27">
+        <v>4.8700000000000002E-3</v>
+      </c>
+      <c r="G43" s="27">
+        <v>2.2957000000000002E-2</v>
+      </c>
       <c r="J43" t="s">
-        <v>130</v>
-      </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="10:14" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="K43" s="27">
+        <v>1.333E-3</v>
+      </c>
+      <c r="L43" s="27">
+        <v>0.106146</v>
+      </c>
+      <c r="M43" s="27">
+        <v>0.93007200000000001</v>
+      </c>
+      <c r="N43" s="27">
+        <v>8.0787809999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="27">
+        <v>5.6569999999999997E-3</v>
+      </c>
+      <c r="D44" s="27">
+        <v>8.3350000000000004E-3</v>
+      </c>
+      <c r="E44" s="27">
+        <v>1.7961000000000001E-2</v>
+      </c>
+      <c r="F44" s="27">
+        <v>7.1694999999999995E-2</v>
+      </c>
+      <c r="G44" s="27">
+        <v>0.19126699999999999</v>
+      </c>
       <c r="J44" t="s">
         <v>131</v>
       </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="K44" s="27">
+        <v>4.8700000000000002E-4</v>
+      </c>
+      <c r="L44" s="27">
+        <v>0.15571299999999999</v>
+      </c>
+      <c r="M44" s="27">
+        <v>0.977939</v>
+      </c>
+      <c r="N44" s="27">
+        <v>8.3094160000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="27">
+        <v>5.6239999999999997E-3</v>
+      </c>
+      <c r="D45" s="27">
+        <v>8.456E-3</v>
+      </c>
+      <c r="E45" s="27">
+        <v>1.6715000000000001E-2</v>
+      </c>
+      <c r="F45" s="27">
+        <v>8.0728999999999995E-2</v>
+      </c>
+      <c r="G45" s="27">
+        <v>0.156608</v>
+      </c>
+      <c r="J45" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45" s="27">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="L45" s="27">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="M45" s="27">
+        <v>7.85E-4</v>
+      </c>
+      <c r="N45" s="27">
+        <v>4.1869999999999997E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>133</v>
+      </c>
+      <c r="K46" s="27">
+        <v>1.0319999999999999E-3</v>
+      </c>
+      <c r="L46" s="27">
+        <v>6.0698000000000002E-2</v>
+      </c>
+      <c r="M46" s="27">
+        <v>6.5825999999999996E-2</v>
+      </c>
+      <c r="N46" s="27">
+        <v>7.4317999999999995E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K47" s="27">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="L47" s="27">
+        <v>0.104598</v>
+      </c>
+      <c r="M47" s="27">
+        <v>7.1004999999999999E-2</v>
+      </c>
+      <c r="N47" s="27">
+        <v>7.4684E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>32</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="27">
+        <v>12.48062</v>
+      </c>
+      <c r="D49" s="27">
+        <v>5.1504159999999999</v>
+      </c>
+      <c r="E49" s="27">
+        <v>7.2366830000000002</v>
+      </c>
+      <c r="F49" s="27">
+        <v>10.055014999999999</v>
+      </c>
+      <c r="G49" s="27">
+        <v>10.804500000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="27">
+        <v>12.431976000000001</v>
+      </c>
+      <c r="D50" s="27">
+        <v>5.3156540000000003</v>
+      </c>
+      <c r="E50" s="27">
+        <v>7.4625560000000002</v>
+      </c>
+      <c r="F50" s="27">
+        <v>8.9340630000000001</v>
+      </c>
+      <c r="G50" s="27">
+        <v>11.248695</v>
+      </c>
       <c r="J50" s="2" t="s">
         <v>127</v>
       </c>
@@ -25603,53 +27739,457 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="27">
+        <v>7.1400000000000001E-4</v>
+      </c>
+      <c r="D51" s="27">
+        <v>1.622E-3</v>
+      </c>
+      <c r="E51" s="27">
+        <v>6.1780000000000003E-3</v>
+      </c>
+      <c r="F51" s="27">
+        <v>1.7055000000000001E-2</v>
+      </c>
+      <c r="G51" s="27">
+        <v>5.8427E-2</v>
+      </c>
       <c r="J51" t="s">
-        <v>130</v>
-      </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="K51" s="27">
+        <v>1.17E-3</v>
+      </c>
+      <c r="L51" s="27">
+        <v>0.104805</v>
+      </c>
+      <c r="M51" s="27">
+        <v>0.90555200000000002</v>
+      </c>
+      <c r="N51" s="27">
+        <v>6.5643440000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="27">
+        <v>1.1338000000000001E-2</v>
+      </c>
+      <c r="D52" s="27">
+        <v>2.1141E-2</v>
+      </c>
+      <c r="E52" s="27">
+        <v>6.6461000000000006E-2</v>
+      </c>
+      <c r="F52" s="27">
+        <v>0.17773600000000001</v>
+      </c>
+      <c r="G52" s="27">
+        <v>0.37906499999999999</v>
+      </c>
       <c r="J52" t="s">
         <v>131</v>
       </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.2">
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="K52" s="27">
+        <v>5.62E-4</v>
+      </c>
+      <c r="L52" s="27">
+        <v>9.7748000000000002E-2</v>
+      </c>
+      <c r="M52" s="27">
+        <v>0.775613</v>
+      </c>
+      <c r="N52" s="27">
+        <v>6.2808020000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="27">
+        <v>1.1341E-2</v>
+      </c>
+      <c r="D53" s="27">
+        <v>2.1902000000000001E-2</v>
+      </c>
+      <c r="E53" s="27">
+        <v>7.3177000000000006E-2</v>
+      </c>
+      <c r="F53" s="27">
+        <v>0.16180600000000001</v>
+      </c>
+      <c r="G53" s="27">
+        <v>0.39782800000000001</v>
+      </c>
+      <c r="J53" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53" s="27">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="L53" s="27">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="M53" s="27">
+        <v>9.68E-4</v>
+      </c>
+      <c r="N53" s="27">
+        <v>3.98E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>133</v>
+      </c>
+      <c r="K54" s="27">
+        <v>9.3899999999999995E-4</v>
+      </c>
+      <c r="L54" s="27">
+        <v>5.8228000000000002E-2</v>
+      </c>
+      <c r="M54" s="27">
+        <v>6.6661999999999999E-2</v>
+      </c>
+      <c r="N54" s="27">
+        <v>6.2631000000000006E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55" s="27">
+        <v>3.5799999999999997E-4</v>
+      </c>
+      <c r="L55" s="27">
+        <v>4.5672999999999998E-2</v>
+      </c>
+      <c r="M55" s="27">
+        <v>5.5834000000000002E-2</v>
+      </c>
+      <c r="N55" s="27">
+        <v>5.8819000000000003E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>16</v>
+      </c>
+      <c r="G56">
+        <v>32</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
     </row>
+    <row r="57" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="27">
+        <v>11.345143</v>
+      </c>
+      <c r="D57" s="27">
+        <v>5.2281190000000004</v>
+      </c>
+      <c r="E57" s="27">
+        <v>7.4368590000000001</v>
+      </c>
+      <c r="F57" s="27">
+        <v>9.7406539999999993</v>
+      </c>
+      <c r="G57" s="27">
+        <v>9.6919909999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="27">
+        <v>11.273387</v>
+      </c>
+      <c r="D58" s="27">
+        <v>5.094392</v>
+      </c>
+      <c r="E58" s="27">
+        <v>7.6198079999999999</v>
+      </c>
+      <c r="F58" s="27">
+        <v>11.484626</v>
+      </c>
+      <c r="G58" s="27">
+        <v>10.109779</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="27">
+        <v>7.5100000000000004E-4</v>
+      </c>
+      <c r="D59" s="27">
+        <v>1.709E-3</v>
+      </c>
+      <c r="E59" s="27">
+        <v>7.4419999999999998E-3</v>
+      </c>
+      <c r="F59" s="27">
+        <v>2.0146000000000001E-2</v>
+      </c>
+      <c r="G59" s="27">
+        <v>3.4668999999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="27">
+        <v>1.0337000000000001E-2</v>
+      </c>
+      <c r="D60" s="27">
+        <v>2.1623E-2</v>
+      </c>
+      <c r="E60" s="27">
+        <v>6.6812999999999997E-2</v>
+      </c>
+      <c r="F60" s="27">
+        <v>0.168402</v>
+      </c>
+      <c r="G60" s="27">
+        <v>0.348553</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="27">
+        <v>1.0199E-2</v>
+      </c>
+      <c r="D61" s="27">
+        <v>1.9875E-2</v>
+      </c>
+      <c r="E61" s="27">
+        <v>6.6850999999999994E-2</v>
+      </c>
+      <c r="F61" s="27">
+        <v>0.20858699999999999</v>
+      </c>
+      <c r="G61" s="27">
+        <v>0.37091499999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>16</v>
+      </c>
+      <c r="G65">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" t="str">
+        <f>B7</f>
+        <v>stock</v>
+      </c>
+      <c r="C66" cm="1">
+        <f t="array" ref="C66:G66">C9:G9</f>
+        <v>13.429015</v>
+      </c>
+      <c r="D66">
+        <v>3.8718759999999999</v>
+      </c>
+      <c r="E66">
+        <v>8.6190339999999992</v>
+      </c>
+      <c r="F66">
+        <v>2.4590529999999999</v>
+      </c>
+      <c r="G66">
+        <v>2.0692740000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" t="str">
+        <f>B15</f>
+        <v>cmap-pm-dc</v>
+      </c>
+      <c r="C67" cm="1">
+        <f t="array" ref="C67:G67">C17:G17</f>
+        <v>11.234544</v>
+      </c>
+      <c r="D67">
+        <v>5.1537790000000001</v>
+      </c>
+      <c r="E67">
+        <v>6.5643440000000002</v>
+      </c>
+      <c r="F67">
+        <v>11.670679</v>
+      </c>
+      <c r="G67">
+        <v>13.103910000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" t="str">
+        <f>B23</f>
+        <v>cmap-pm</v>
+      </c>
+      <c r="C68" cm="1">
+        <f t="array" ref="C68:G68">C25:G25</f>
+        <v>12.516795</v>
+      </c>
+      <c r="D68">
+        <v>5.2080419999999998</v>
+      </c>
+      <c r="E68">
+        <v>7.2711779999999999</v>
+      </c>
+      <c r="F68">
+        <v>10.288795</v>
+      </c>
+      <c r="G68">
+        <v>9.6817279999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" t="str">
+        <f>B31</f>
+        <v>table-sst-dc</v>
+      </c>
+      <c r="C69" cm="1">
+        <f t="array" ref="C69:G69">C33:G33</f>
+        <v>7.6781829999999998</v>
+      </c>
+      <c r="D69">
+        <v>2.7201930000000001</v>
+      </c>
+      <c r="E69">
+        <v>2.711754</v>
+      </c>
+      <c r="F69">
+        <v>3.9643380000000001</v>
+      </c>
+      <c r="G69">
+        <v>5.1014710000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" t="str">
+        <f>B39</f>
+        <v>table-sst</v>
+      </c>
+      <c r="C70" cm="1">
+        <f t="array" ref="C70:G70">C41:G41</f>
+        <v>8.0535219999999992</v>
+      </c>
+      <c r="D70">
+        <v>2.67625</v>
+      </c>
+      <c r="E70">
+        <v>2.3097859999999999</v>
+      </c>
+      <c r="F70">
+        <v>4.0681339999999997</v>
+      </c>
+      <c r="G70">
+        <v>5.3683100000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" t="str">
+        <f>B55</f>
+        <v>table-pm-dc</v>
+      </c>
+      <c r="C71">
+        <f>C57</f>
+        <v>11.345143</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:F71" si="10">D57</f>
+        <v>5.2281190000000004</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="10"/>
+        <v>7.4368590000000001</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="10"/>
+        <v>9.7406539999999993</v>
+      </c>
+      <c r="G71">
+        <f>G57</f>
+        <v>9.6919909999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" cm="1">
+        <f t="array" ref="C72:G72">C49:G49</f>
+        <v>12.48062</v>
+      </c>
+      <c r="D72">
+        <v>5.1504159999999999</v>
+      </c>
+      <c r="E72">
+        <v>7.2366830000000002</v>
+      </c>
+      <c r="F72">
+        <v>10.055014999999999</v>
+      </c>
+      <c r="G72">
+        <v>10.804500000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>